--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U763"/>
+  <dimension ref="A1:U764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37050,367 +37050,345 @@
       <c r="U707" s="3" t="inlineStr"/>
     </row>
     <row r="708">
-      <c r="A708" s="3" t="inlineStr"/>
-      <c r="B708" s="3" t="inlineStr">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>BCIO:123</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr"/>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr"/>
+      <c r="G708" t="inlineStr"/>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
+      <c r="L708" t="inlineStr"/>
+      <c r="M708" t="inlineStr"/>
+      <c r="N708" t="inlineStr"/>
+      <c r="O708" t="inlineStr"/>
+      <c r="P708" t="inlineStr"/>
+      <c r="Q708" t="inlineStr"/>
+      <c r="R708" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="S708" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T708" t="inlineStr"/>
+      <c r="U708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="3" t="inlineStr"/>
+      <c r="B709" s="3" t="inlineStr">
         <is>
           <t>tested positive for drugs</t>
         </is>
       </c>
-      <c r="C708" s="3" t="inlineStr"/>
-      <c r="D708" s="3" t="inlineStr"/>
-      <c r="E708" s="3" t="inlineStr"/>
-      <c r="F708" s="3" t="inlineStr"/>
-      <c r="G708" s="3" t="inlineStr"/>
-      <c r="H708" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I708" s="3" t="inlineStr"/>
-      <c r="J708" s="3" t="inlineStr"/>
-      <c r="K708" s="3" t="inlineStr"/>
-      <c r="L708" s="3" t="inlineStr"/>
-      <c r="M708" s="3" t="inlineStr"/>
-      <c r="N708" s="3" t="inlineStr"/>
-      <c r="O708" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P708" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q708" s="3" t="inlineStr"/>
-      <c r="R708" s="3" t="inlineStr"/>
-      <c r="S708" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T708" s="3" t="inlineStr"/>
-      <c r="U708" s="3" t="inlineStr"/>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
+      <c r="C709" s="3" t="inlineStr"/>
+      <c r="D709" s="3" t="inlineStr"/>
+      <c r="E709" s="3" t="inlineStr"/>
+      <c r="F709" s="3" t="inlineStr"/>
+      <c r="G709" s="3" t="inlineStr"/>
+      <c r="H709" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I709" s="3" t="inlineStr"/>
+      <c r="J709" s="3" t="inlineStr"/>
+      <c r="K709" s="3" t="inlineStr"/>
+      <c r="L709" s="3" t="inlineStr"/>
+      <c r="M709" s="3" t="inlineStr"/>
+      <c r="N709" s="3" t="inlineStr"/>
+      <c r="O709" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P709" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q709" s="3" t="inlineStr"/>
+      <c r="R709" s="3" t="inlineStr"/>
+      <c r="S709" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T709" s="3" t="inlineStr"/>
+      <c r="U709" s="3" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
         <is>
           <t>NCIT:C12459</t>
         </is>
       </c>
-      <c r="B709" t="inlineStr">
+      <c r="B710" t="inlineStr">
         <is>
           <t>thalamus</t>
         </is>
       </c>
-      <c r="C709" t="inlineStr">
+      <c r="C710" t="inlineStr">
         <is>
           <t>An ovoid mass composed predominantly of gray substance and associated laminae of white substance. The thalamus is divided into anterior, medial, and lateral parts. The function of the thalamus is to relay sensory impulses and cerebellar and basal ganglia projections to the cerebral cortex. The thalamus is positioned within the posterior part of the diencephalon forming most of each lateral wall of the third ventricle.</t>
         </is>
       </c>
-      <c r="D709" t="inlineStr"/>
-      <c r="E709" t="inlineStr"/>
-      <c r="F709" t="inlineStr">
+      <c r="D710" t="inlineStr"/>
+      <c r="E710" t="inlineStr"/>
+      <c r="F710" t="inlineStr">
         <is>
           <t>brain part</t>
         </is>
       </c>
-      <c r="G709" t="inlineStr"/>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I709" t="inlineStr">
+      <c r="G710" t="inlineStr"/>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
         <is>
           <t>NCIT:C12459</t>
         </is>
       </c>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
-      <c r="M709" t="inlineStr"/>
-      <c r="N709" t="inlineStr"/>
-      <c r="O709" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P709" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q709" t="inlineStr"/>
-      <c r="R709" t="inlineStr">
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
+      <c r="L710" t="inlineStr"/>
+      <c r="M710" t="inlineStr"/>
+      <c r="N710" t="inlineStr"/>
+      <c r="O710" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P710" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q710" t="inlineStr"/>
+      <c r="R710" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="S709" t="inlineStr">
+      <c r="S710" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T709" t="inlineStr"/>
-      <c r="U709" t="inlineStr"/>
-    </row>
-    <row r="710">
-      <c r="A710" s="3" t="inlineStr">
+      <c r="T710" t="inlineStr"/>
+      <c r="U710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001045</t>
         </is>
       </c>
-      <c r="B710" s="3" t="inlineStr">
+      <c r="B711" s="3" t="inlineStr">
         <is>
           <t>third trimester</t>
         </is>
       </c>
-      <c r="C710" s="3" t="inlineStr">
+      <c r="C711" s="3" t="inlineStr">
         <is>
           <t>The trimester that ranges from the 28th week of pregnancy until delivery; the last trimester of gestation.</t>
         </is>
       </c>
-      <c r="D710" s="3" t="inlineStr"/>
-      <c r="E710" s="3" t="inlineStr"/>
-      <c r="F710" s="3" t="inlineStr">
+      <c r="D711" s="3" t="inlineStr"/>
+      <c r="E711" s="3" t="inlineStr"/>
+      <c r="F711" s="3" t="inlineStr">
         <is>
           <t>trimester</t>
         </is>
       </c>
-      <c r="G710" s="3" t="inlineStr"/>
-      <c r="H710" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I710" s="3" t="inlineStr"/>
-      <c r="J710" s="3" t="inlineStr"/>
-      <c r="K710" s="3" t="inlineStr"/>
-      <c r="L710" s="3" t="inlineStr"/>
-      <c r="M710" s="3" t="inlineStr"/>
-      <c r="N710" s="3" t="inlineStr"/>
-      <c r="O710" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P710" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q710" s="3" t="inlineStr"/>
-      <c r="R710" s="3" t="inlineStr">
+      <c r="G711" s="3" t="inlineStr"/>
+      <c r="H711" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I711" s="3" t="inlineStr"/>
+      <c r="J711" s="3" t="inlineStr"/>
+      <c r="K711" s="3" t="inlineStr"/>
+      <c r="L711" s="3" t="inlineStr"/>
+      <c r="M711" s="3" t="inlineStr"/>
+      <c r="N711" s="3" t="inlineStr"/>
+      <c r="O711" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P711" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q711" s="3" t="inlineStr"/>
+      <c r="R711" s="3" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="S710" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T710" s="3" t="inlineStr"/>
-      <c r="U710" s="3" t="inlineStr"/>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
+      <c r="S711" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T711" s="3" t="inlineStr"/>
+      <c r="U711" s="3" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
         <is>
           <t>DOID:0060903</t>
         </is>
       </c>
-      <c r="B711" t="inlineStr">
+      <c r="B712" t="inlineStr">
         <is>
           <t>thrombosis</t>
         </is>
       </c>
-      <c r="C711" t="inlineStr">
+      <c r="C712" t="inlineStr">
         <is>
           <t xml:space="preserve">A vascular disease caused by the formation of a blood clot inside a blood vessel, obstructing the flow of blood through the circulatory system. </t>
         </is>
       </c>
-      <c r="D711" t="inlineStr"/>
-      <c r="E711" t="inlineStr"/>
-      <c r="F711" t="inlineStr">
+      <c r="D712" t="inlineStr"/>
+      <c r="E712" t="inlineStr"/>
+      <c r="F712" t="inlineStr">
         <is>
           <t>vascular disease</t>
         </is>
       </c>
-      <c r="G711" t="inlineStr"/>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I711" t="inlineStr">
+      <c r="G712" t="inlineStr"/>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
         <is>
           <t>DOID:0060903</t>
         </is>
       </c>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
-      <c r="M711" t="inlineStr"/>
-      <c r="N711" t="inlineStr"/>
-      <c r="O711" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P711" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q711" t="inlineStr"/>
-      <c r="R711" t="inlineStr">
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="inlineStr"/>
+      <c r="M712" t="inlineStr"/>
+      <c r="N712" t="inlineStr"/>
+      <c r="O712" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P712" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q712" t="inlineStr"/>
+      <c r="R712" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="S711" t="inlineStr">
+      <c r="S712" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T711" t="inlineStr"/>
-      <c r="U711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" s="3" t="inlineStr"/>
-      <c r="B712" s="3" t="inlineStr">
+      <c r="T712" t="inlineStr"/>
+      <c r="U712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="3" t="inlineStr"/>
+      <c r="B713" s="3" t="inlineStr">
         <is>
           <t>time since first injection drug use</t>
         </is>
       </c>
-      <c r="C712" s="3" t="inlineStr"/>
-      <c r="D712" s="3" t="inlineStr"/>
-      <c r="E712" s="3" t="inlineStr"/>
-      <c r="F712" s="3" t="inlineStr"/>
-      <c r="G712" s="3" t="inlineStr"/>
-      <c r="H712" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I712" s="3" t="inlineStr"/>
-      <c r="J712" s="3" t="inlineStr"/>
-      <c r="K712" s="3" t="inlineStr"/>
-      <c r="L712" s="3" t="inlineStr"/>
-      <c r="M712" s="3" t="inlineStr"/>
-      <c r="N712" s="3" t="inlineStr"/>
-      <c r="O712" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P712" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q712" s="3" t="inlineStr"/>
-      <c r="R712" s="3" t="inlineStr"/>
-      <c r="S712" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T712" s="3" t="inlineStr"/>
-      <c r="U712" s="3" t="inlineStr"/>
-    </row>
-    <row r="713">
-      <c r="A713" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001215</t>
-        </is>
-      </c>
-      <c r="B713" s="2" t="inlineStr">
-        <is>
-          <t>tobacco addiction</t>
-        </is>
-      </c>
-      <c r="C713" s="2" t="inlineStr">
-        <is>
-          <t>Addiction to a tobacco-containing product.</t>
-        </is>
-      </c>
-      <c r="D713" s="2" t="inlineStr"/>
-      <c r="E713" s="2" t="inlineStr"/>
-      <c r="F713" s="2" t="inlineStr">
-        <is>
-          <t>addiction</t>
-        </is>
-      </c>
-      <c r="G713" s="2" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="H713" s="2" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I713" s="2" t="inlineStr"/>
-      <c r="J713" s="2" t="inlineStr"/>
-      <c r="K713" s="2" t="inlineStr"/>
-      <c r="L713" s="2" t="inlineStr"/>
-      <c r="M713" s="2" t="inlineStr"/>
-      <c r="N713" s="2" t="inlineStr"/>
-      <c r="O713" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="P713" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q713" s="2" t="inlineStr">
-        <is>
-          <t>Strength of the disposition has to be defined.</t>
-        </is>
-      </c>
-      <c r="R713" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="S713" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T713" s="2" t="inlineStr"/>
-      <c r="U713" s="2" t="inlineStr"/>
+      <c r="C713" s="3" t="inlineStr"/>
+      <c r="D713" s="3" t="inlineStr"/>
+      <c r="E713" s="3" t="inlineStr"/>
+      <c r="F713" s="3" t="inlineStr"/>
+      <c r="G713" s="3" t="inlineStr"/>
+      <c r="H713" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I713" s="3" t="inlineStr"/>
+      <c r="J713" s="3" t="inlineStr"/>
+      <c r="K713" s="3" t="inlineStr"/>
+      <c r="L713" s="3" t="inlineStr"/>
+      <c r="M713" s="3" t="inlineStr"/>
+      <c r="N713" s="3" t="inlineStr"/>
+      <c r="O713" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P713" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q713" s="3" t="inlineStr"/>
+      <c r="R713" s="3" t="inlineStr"/>
+      <c r="S713" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T713" s="3" t="inlineStr"/>
+      <c r="U713" s="3" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000405</t>
+          <t>ADDICTO:0001215</t>
         </is>
       </c>
       <c r="B714" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoker</t>
+          <t>tobacco addiction</t>
         </is>
       </c>
       <c r="C714" s="2" t="inlineStr">
         <is>
-          <t>A tobacco user who engages in tobacco smoking.</t>
+          <t>Addiction to a tobacco-containing product.</t>
         </is>
       </c>
       <c r="D714" s="2" t="inlineStr"/>
       <c r="E714" s="2" t="inlineStr"/>
       <c r="F714" s="2" t="inlineStr">
         <is>
-          <t>tobacco user</t>
+          <t>addiction</t>
         </is>
       </c>
       <c r="G714" s="2" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="H714" s="2" t="inlineStr">
@@ -37419,37 +37397,27 @@
         </is>
       </c>
       <c r="I714" s="2" t="inlineStr"/>
-      <c r="J714" s="2" t="inlineStr">
-        <is>
-          <t>'tobacco user' and 'participates in' some 'tobacco smoking'</t>
-        </is>
-      </c>
-      <c r="K714" s="2" t="inlineStr">
-        <is>
-          <t>smoker;current smoker;current tobacco smoker</t>
-        </is>
-      </c>
+      <c r="J714" s="2" t="inlineStr"/>
+      <c r="K714" s="2" t="inlineStr"/>
       <c r="L714" s="2" t="inlineStr"/>
-      <c r="M714" s="2" t="inlineStr">
-        <is>
-          <t>This applies to the current time period and the behaviour pattern of tobacco smoking. The time period and the amount of smoking needs to be operationalised.</t>
-        </is>
-      </c>
+      <c r="M714" s="2" t="inlineStr"/>
       <c r="N714" s="2" t="inlineStr"/>
-      <c r="O714" s="2" t="n">
-        <v>1</v>
+      <c r="O714" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="P714" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q714" s="2" t="inlineStr">
         <is>
-          <t>What counts as current and how much smoking counts is subject to differing interpretations.</t>
+          <t>Strength of the disposition has to be defined.</t>
         </is>
       </c>
       <c r="R714" s="2" t="inlineStr">
         <is>
-          <t>All; SC; RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="S714" s="2" t="inlineStr">
@@ -37463,43 +37431,51 @@
     <row r="715">
       <c r="A715" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000773</t>
+          <t>ADDICTO:0000405</t>
         </is>
       </c>
       <c r="B715" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoker and ex-e-cigarette user</t>
+          <t>tobacco smoker</t>
         </is>
       </c>
       <c r="C715" s="2" t="inlineStr">
         <is>
-          <t>A tobacco smoker who is an ex-e-cigarette user</t>
+          <t>A tobacco user who engages in tobacco smoking.</t>
         </is>
       </c>
       <c r="D715" s="2" t="inlineStr"/>
       <c r="E715" s="2" t="inlineStr"/>
       <c r="F715" s="2" t="inlineStr">
         <is>
-          <t>tobacco smoker</t>
-        </is>
-      </c>
-      <c r="G715" s="2" t="inlineStr"/>
+          <t>tobacco user</t>
+        </is>
+      </c>
+      <c r="G715" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
       <c r="H715" s="2" t="inlineStr">
         <is>
           <t>Human being</t>
         </is>
       </c>
       <c r="I715" s="2" t="inlineStr"/>
-      <c r="J715" s="2" t="inlineStr"/>
+      <c r="J715" s="2" t="inlineStr">
+        <is>
+          <t>'tobacco user' and 'participates in' some 'tobacco smoking'</t>
+        </is>
+      </c>
       <c r="K715" s="2" t="inlineStr">
         <is>
-          <t>Smoker; current smoker; ex e-cigarette user; ex-vaper</t>
+          <t>smoker;current smoker;current tobacco smoker</t>
         </is>
       </c>
       <c r="L715" s="2" t="inlineStr"/>
       <c r="M715" s="2" t="inlineStr">
         <is>
-          <t>This class requires specification of the time period since e-cigarette use stopped. E-cigarette use may have been with or without tobacco smoking.</t>
+          <t>This applies to the current time period and the behaviour pattern of tobacco smoking. The time period and the amount of smoking needs to be operationalised.</t>
         </is>
       </c>
       <c r="N715" s="2" t="inlineStr"/>
@@ -37509,286 +37485,292 @@
       <c r="P715" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q715" s="2" t="inlineStr"/>
+      <c r="Q715" s="2" t="inlineStr">
+        <is>
+          <t>What counts as current and how much smoking counts is subject to differing interpretations.</t>
+        </is>
+      </c>
       <c r="R715" s="2" t="inlineStr">
         <is>
+          <t>All; SC; RW; JH</t>
+        </is>
+      </c>
+      <c r="S715" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T715" s="2" t="inlineStr"/>
+      <c r="U715" s="2" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000773</t>
+        </is>
+      </c>
+      <c r="B716" s="2" t="inlineStr">
+        <is>
+          <t>tobacco smoker and ex-e-cigarette user</t>
+        </is>
+      </c>
+      <c r="C716" s="2" t="inlineStr">
+        <is>
+          <t>A tobacco smoker who is an ex-e-cigarette user</t>
+        </is>
+      </c>
+      <c r="D716" s="2" t="inlineStr"/>
+      <c r="E716" s="2" t="inlineStr"/>
+      <c r="F716" s="2" t="inlineStr">
+        <is>
+          <t>tobacco smoker</t>
+        </is>
+      </c>
+      <c r="G716" s="2" t="inlineStr"/>
+      <c r="H716" s="2" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I716" s="2" t="inlineStr"/>
+      <c r="J716" s="2" t="inlineStr"/>
+      <c r="K716" s="2" t="inlineStr">
+        <is>
+          <t>Smoker; current smoker; ex e-cigarette user; ex-vaper</t>
+        </is>
+      </c>
+      <c r="L716" s="2" t="inlineStr"/>
+      <c r="M716" s="2" t="inlineStr">
+        <is>
+          <t>This class requires specification of the time period since e-cigarette use stopped. E-cigarette use may have been with or without tobacco smoking.</t>
+        </is>
+      </c>
+      <c r="N716" s="2" t="inlineStr"/>
+      <c r="O716" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P716" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q716" s="2" t="inlineStr"/>
+      <c r="R716" s="2" t="inlineStr">
+        <is>
           <t>SC; RW</t>
         </is>
       </c>
-      <c r="S715" s="2" t="inlineStr">
+      <c r="S716" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T715" s="2" t="inlineStr">
+      <c r="T716" s="2" t="inlineStr">
         <is>
           <t>JH; RW; CN</t>
         </is>
       </c>
-      <c r="U715" s="2" t="inlineStr"/>
-    </row>
-    <row r="716">
-      <c r="A716" s="4" t="inlineStr">
+      <c r="U716" s="2" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000406</t>
         </is>
       </c>
-      <c r="B716" s="4" t="inlineStr">
+      <c r="B717" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">tobacco smoker identity </t>
         </is>
       </c>
-      <c r="C716" s="4" t="inlineStr">
+      <c r="C717" s="4" t="inlineStr">
         <is>
           <t>A self-identity in which a person represents themselves as a tobacco smoker.</t>
         </is>
       </c>
-      <c r="D716" s="4" t="inlineStr"/>
-      <c r="E716" s="4" t="inlineStr"/>
-      <c r="F716" s="4" t="inlineStr">
+      <c r="D717" s="4" t="inlineStr"/>
+      <c r="E717" s="4" t="inlineStr"/>
+      <c r="F717" s="4" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="G716" s="4" t="inlineStr">
+      <c r="G717" s="4" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="H716" s="4" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I716" s="4" t="inlineStr"/>
-      <c r="J716" s="4" t="inlineStr"/>
-      <c r="K716" s="4" t="inlineStr"/>
-      <c r="L716" s="4" t="inlineStr"/>
-      <c r="M716" s="4" t="inlineStr"/>
-      <c r="N716" s="4" t="inlineStr"/>
-      <c r="O716" s="4" t="inlineStr">
+      <c r="H717" s="4" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I717" s="4" t="inlineStr"/>
+      <c r="J717" s="4" t="inlineStr"/>
+      <c r="K717" s="4" t="inlineStr"/>
+      <c r="L717" s="4" t="inlineStr"/>
+      <c r="M717" s="4" t="inlineStr"/>
+      <c r="N717" s="4" t="inlineStr"/>
+      <c r="O717" s="4" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="P716" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q716" s="4" t="inlineStr"/>
-      <c r="R716" s="4" t="inlineStr">
+      <c r="P717" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q717" s="4" t="inlineStr"/>
+      <c r="R717" s="4" t="inlineStr">
         <is>
           <t>All; RW; KS</t>
         </is>
       </c>
-      <c r="S716" s="4" t="inlineStr">
+      <c r="S717" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T716" s="4" t="inlineStr"/>
-      <c r="U716" s="4" t="inlineStr"/>
-    </row>
-    <row r="717">
-      <c r="A717" s="3" t="inlineStr"/>
-      <c r="B717" s="3" t="inlineStr">
+      <c r="T717" s="4" t="inlineStr"/>
+      <c r="U717" s="4" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="3" t="inlineStr"/>
+      <c r="B718" s="3" t="inlineStr">
         <is>
           <t>tobacco use cue</t>
         </is>
       </c>
-      <c r="C717" s="3" t="inlineStr">
+      <c r="C718" s="3" t="inlineStr">
         <is>
           <t>Perception of an entity that momentarily increases motivation to use a tobacco product.</t>
         </is>
       </c>
-      <c r="D717" s="3" t="inlineStr"/>
-      <c r="E717" s="3" t="inlineStr"/>
-      <c r="F717" s="3" t="inlineStr"/>
-      <c r="G717" s="3" t="inlineStr"/>
-      <c r="H717" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I717" s="3" t="inlineStr"/>
-      <c r="J717" s="3" t="inlineStr"/>
-      <c r="K717" s="3" t="inlineStr"/>
-      <c r="L717" s="3" t="inlineStr"/>
-      <c r="M717" s="3" t="inlineStr"/>
-      <c r="N717" s="3" t="inlineStr"/>
-      <c r="O717" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P717" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q717" s="3" t="inlineStr"/>
-      <c r="R717" s="3" t="inlineStr"/>
-      <c r="S717" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T717" s="3" t="inlineStr"/>
-      <c r="U717" s="3" t="inlineStr"/>
-    </row>
-    <row r="718">
-      <c r="A718" s="5" t="inlineStr">
+      <c r="D718" s="3" t="inlineStr"/>
+      <c r="E718" s="3" t="inlineStr"/>
+      <c r="F718" s="3" t="inlineStr"/>
+      <c r="G718" s="3" t="inlineStr"/>
+      <c r="H718" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I718" s="3" t="inlineStr"/>
+      <c r="J718" s="3" t="inlineStr"/>
+      <c r="K718" s="3" t="inlineStr"/>
+      <c r="L718" s="3" t="inlineStr"/>
+      <c r="M718" s="3" t="inlineStr"/>
+      <c r="N718" s="3" t="inlineStr"/>
+      <c r="O718" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P718" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q718" s="3" t="inlineStr"/>
+      <c r="R718" s="3" t="inlineStr"/>
+      <c r="S718" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T718" s="3" t="inlineStr"/>
+      <c r="U718" s="3" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0001074</t>
         </is>
       </c>
-      <c r="B718" s="5" t="inlineStr">
+      <c r="B719" s="5" t="inlineStr">
         <is>
           <t>tobacco use disorder</t>
         </is>
       </c>
-      <c r="C718" s="5" t="inlineStr">
+      <c r="C719" s="5" t="inlineStr">
         <is>
           <t>An addictive disorder that involves addiction to tobacco use.</t>
         </is>
       </c>
-      <c r="D718" s="5" t="inlineStr"/>
-      <c r="E718" s="5" t="inlineStr"/>
-      <c r="F718" s="5" t="inlineStr">
+      <c r="D719" s="5" t="inlineStr"/>
+      <c r="E719" s="5" t="inlineStr"/>
+      <c r="F719" s="5" t="inlineStr">
         <is>
           <t>substance use disorder</t>
         </is>
       </c>
-      <c r="G718" s="5" t="inlineStr">
+      <c r="G719" s="5" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="H718" s="5" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I718" s="5" t="inlineStr"/>
-      <c r="J718" s="5" t="inlineStr"/>
-      <c r="K718" s="5" t="inlineStr"/>
-      <c r="L718" s="5" t="inlineStr"/>
-      <c r="M718" s="5" t="inlineStr"/>
-      <c r="N718" s="5" t="inlineStr"/>
-      <c r="O718" s="5" t="inlineStr">
+      <c r="H719" s="5" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I719" s="5" t="inlineStr"/>
+      <c r="J719" s="5" t="inlineStr"/>
+      <c r="K719" s="5" t="inlineStr"/>
+      <c r="L719" s="5" t="inlineStr"/>
+      <c r="M719" s="5" t="inlineStr"/>
+      <c r="N719" s="5" t="inlineStr"/>
+      <c r="O719" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="P718" s="5" t="inlineStr">
+      <c r="P719" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="Q718" s="5" t="inlineStr"/>
-      <c r="R718" s="5" t="inlineStr">
+      <c r="Q719" s="5" t="inlineStr"/>
+      <c r="R719" s="5" t="inlineStr">
         <is>
           <t>KS; RW</t>
         </is>
       </c>
-      <c r="S718" s="5" t="inlineStr">
+      <c r="S719" s="5" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="T718" s="5" t="inlineStr"/>
-      <c r="U718" s="5" t="inlineStr"/>
-    </row>
-    <row r="719">
-      <c r="A719" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001195</t>
-        </is>
-      </c>
-      <c r="B719" s="2" t="inlineStr">
-        <is>
-          <t>tobacco user</t>
-        </is>
-      </c>
-      <c r="C719" s="2" t="inlineStr">
-        <is>
-          <t>A substance user who engages in tobacco use.</t>
-        </is>
-      </c>
-      <c r="D719" s="2" t="inlineStr"/>
-      <c r="E719" s="2" t="inlineStr"/>
-      <c r="F719" s="2" t="inlineStr">
-        <is>
-          <t>substance user</t>
-        </is>
-      </c>
-      <c r="G719" s="2" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="H719" s="2" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I719" s="2" t="inlineStr"/>
-      <c r="J719" s="2" t="inlineStr"/>
-      <c r="K719" s="2" t="inlineStr"/>
-      <c r="L719" s="2" t="inlineStr"/>
-      <c r="M719" s="2" t="inlineStr"/>
-      <c r="N719" s="2" t="inlineStr"/>
-      <c r="O719" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="P719" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q719" s="2" t="inlineStr">
-        <is>
-          <t>The time period over which tobacco use is being represented must be defined.</t>
-        </is>
-      </c>
-      <c r="R719" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="S719" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T719" s="2" t="inlineStr"/>
-      <c r="U719" s="2" t="inlineStr"/>
+      <c r="T719" s="5" t="inlineStr"/>
+      <c r="U719" s="5" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000403</t>
+          <t>ADDICTO:0001195</t>
         </is>
       </c>
       <c r="B720" s="2" t="inlineStr">
         <is>
-          <t>tobacco-caused disease</t>
+          <t>tobacco user</t>
         </is>
       </c>
       <c r="C720" s="2" t="inlineStr">
         <is>
-          <t>A disease in which tobacco use has played a causal role.</t>
+          <t>A substance user who engages in tobacco use.</t>
         </is>
       </c>
       <c r="D720" s="2" t="inlineStr"/>
       <c r="E720" s="2" t="inlineStr"/>
       <c r="F720" s="2" t="inlineStr">
         <is>
-          <t>disease</t>
-        </is>
-      </c>
-      <c r="G720" s="2" t="inlineStr"/>
+          <t>substance user</t>
+        </is>
+      </c>
+      <c r="G720" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
       <c r="H720" s="2" t="inlineStr">
         <is>
           <t>Human being</t>
@@ -37799,23 +37781,23 @@
       <c r="K720" s="2" t="inlineStr"/>
       <c r="L720" s="2" t="inlineStr"/>
       <c r="M720" s="2" t="inlineStr"/>
-      <c r="N720" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Use of combustible tobacco is a leading cause of tobacco-related disease. </t>
-        </is>
-      </c>
-      <c r="O720" s="2" t="n">
+      <c r="N720" s="2" t="inlineStr"/>
+      <c r="O720" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="P720" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P720" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q720" s="2" t="inlineStr"/>
+      <c r="Q720" s="2" t="inlineStr">
+        <is>
+          <t>The time period over which tobacco use is being represented must be defined.</t>
+        </is>
+      </c>
       <c r="R720" s="2" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="S720" s="2" t="inlineStr">
@@ -37827,175 +37809,195 @@
       <c r="U720" s="2" t="inlineStr"/>
     </row>
     <row r="721">
-      <c r="A721" s="3" t="inlineStr">
+      <c r="A721" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000403</t>
+        </is>
+      </c>
+      <c r="B721" s="2" t="inlineStr">
+        <is>
+          <t>tobacco-caused disease</t>
+        </is>
+      </c>
+      <c r="C721" s="2" t="inlineStr">
+        <is>
+          <t>A disease in which tobacco use has played a causal role.</t>
+        </is>
+      </c>
+      <c r="D721" s="2" t="inlineStr"/>
+      <c r="E721" s="2" t="inlineStr"/>
+      <c r="F721" s="2" t="inlineStr">
+        <is>
+          <t>disease</t>
+        </is>
+      </c>
+      <c r="G721" s="2" t="inlineStr"/>
+      <c r="H721" s="2" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I721" s="2" t="inlineStr"/>
+      <c r="J721" s="2" t="inlineStr"/>
+      <c r="K721" s="2" t="inlineStr"/>
+      <c r="L721" s="2" t="inlineStr"/>
+      <c r="M721" s="2" t="inlineStr"/>
+      <c r="N721" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use of combustible tobacco is a leading cause of tobacco-related disease. </t>
+        </is>
+      </c>
+      <c r="O721" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P721" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q721" s="2" t="inlineStr"/>
+      <c r="R721" s="2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="S721" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T721" s="2" t="inlineStr"/>
+      <c r="U721" s="2" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000849</t>
         </is>
       </c>
-      <c r="B721" s="3" t="inlineStr">
+      <c r="B722" s="3" t="inlineStr">
         <is>
           <t>tobacco-containing product user</t>
         </is>
       </c>
-      <c r="C721" s="3" t="inlineStr">
+      <c r="C722" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A person who uses tobacco-containing products. </t>
         </is>
       </c>
-      <c r="D721" s="3" t="inlineStr"/>
-      <c r="E721" s="3" t="inlineStr"/>
-      <c r="F721" s="3" t="inlineStr">
+      <c r="D722" s="3" t="inlineStr"/>
+      <c r="E722" s="3" t="inlineStr"/>
+      <c r="F722" s="3" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="G721" s="3" t="inlineStr"/>
-      <c r="H721" s="3" t="inlineStr">
+      <c r="G722" s="3" t="inlineStr"/>
+      <c r="H722" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Human being </t>
         </is>
       </c>
-      <c r="I721" s="3" t="inlineStr"/>
-      <c r="J721" s="3" t="inlineStr"/>
-      <c r="K721" s="3" t="inlineStr"/>
-      <c r="L721" s="3" t="inlineStr"/>
-      <c r="M721" s="3" t="inlineStr">
+      <c r="I722" s="3" t="inlineStr"/>
+      <c r="J722" s="3" t="inlineStr"/>
+      <c r="K722" s="3" t="inlineStr"/>
+      <c r="L722" s="3" t="inlineStr"/>
+      <c r="M722" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">The type of product that is being used must be defined. </t>
         </is>
       </c>
-      <c r="N721" s="3" t="inlineStr"/>
-      <c r="O721" s="3" t="n">
+      <c r="N722" s="3" t="inlineStr"/>
+      <c r="O722" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P721" s="3" t="n">
+      <c r="P722" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q721" s="3" t="inlineStr"/>
-      <c r="R721" s="3" t="inlineStr">
+      <c r="Q722" s="3" t="inlineStr"/>
+      <c r="R722" s="3" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="S721" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T721" s="3" t="inlineStr"/>
-      <c r="U721" s="3" t="inlineStr"/>
-    </row>
-    <row r="722">
-      <c r="A722" s="2" t="inlineStr">
+      <c r="S722" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T722" s="3" t="inlineStr"/>
+      <c r="U722" s="3" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000404</t>
         </is>
       </c>
-      <c r="B722" s="2" t="inlineStr">
+      <c r="B723" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">tobacco-related disease </t>
         </is>
       </c>
-      <c r="C722" s="2" t="inlineStr">
+      <c r="C723" s="2" t="inlineStr">
         <is>
           <t>A disease in which tobacco use is a significant risk factor.</t>
         </is>
       </c>
-      <c r="D722" s="2" t="inlineStr"/>
-      <c r="E722" s="2" t="inlineStr"/>
-      <c r="F722" s="2" t="inlineStr">
+      <c r="D723" s="2" t="inlineStr"/>
+      <c r="E723" s="2" t="inlineStr"/>
+      <c r="F723" s="2" t="inlineStr">
         <is>
           <t>disease</t>
         </is>
       </c>
-      <c r="G722" s="2" t="inlineStr"/>
-      <c r="H722" s="2" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I722" s="2" t="inlineStr"/>
-      <c r="J722" s="2" t="inlineStr"/>
-      <c r="K722" s="2" t="inlineStr"/>
-      <c r="L722" s="2" t="inlineStr"/>
-      <c r="M722" s="2" t="inlineStr"/>
-      <c r="N722" s="2" t="inlineStr">
+      <c r="G723" s="2" t="inlineStr"/>
+      <c r="H723" s="2" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I723" s="2" t="inlineStr"/>
+      <c r="J723" s="2" t="inlineStr"/>
+      <c r="K723" s="2" t="inlineStr"/>
+      <c r="L723" s="2" t="inlineStr"/>
+      <c r="M723" s="2" t="inlineStr"/>
+      <c r="N723" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Use of combustible tobacco increases the users risk of developing tobacco-related disease. </t>
         </is>
       </c>
-      <c r="O722" s="2" t="n">
+      <c r="O723" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P722" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q722" s="2" t="inlineStr"/>
-      <c r="R722" s="2" t="inlineStr">
+      <c r="P723" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q723" s="2" t="inlineStr"/>
+      <c r="R723" s="2" t="inlineStr">
         <is>
           <t>All</t>
         </is>
       </c>
-      <c r="S722" s="2" t="inlineStr">
+      <c r="S723" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T722" s="2" t="inlineStr"/>
-      <c r="U722" s="2" t="inlineStr"/>
-    </row>
-    <row r="723">
-      <c r="A723" s="3" t="inlineStr">
+      <c r="T723" s="2" t="inlineStr"/>
+      <c r="U723" s="2" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000823</t>
         </is>
       </c>
-      <c r="B723" s="3" t="inlineStr">
+      <c r="B724" s="3" t="inlineStr">
         <is>
           <t>toxic effect</t>
-        </is>
-      </c>
-      <c r="C723" s="3" t="inlineStr"/>
-      <c r="D723" s="3" t="inlineStr"/>
-      <c r="E723" s="3" t="inlineStr"/>
-      <c r="F723" s="3" t="inlineStr"/>
-      <c r="G723" s="3" t="inlineStr"/>
-      <c r="H723" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I723" s="3" t="inlineStr"/>
-      <c r="J723" s="3" t="inlineStr"/>
-      <c r="K723" s="3" t="inlineStr"/>
-      <c r="L723" s="3" t="inlineStr"/>
-      <c r="M723" s="3" t="inlineStr"/>
-      <c r="N723" s="3" t="inlineStr"/>
-      <c r="O723" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P723" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q723" s="3" t="inlineStr"/>
-      <c r="R723" s="3" t="inlineStr"/>
-      <c r="S723" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T723" s="3" t="inlineStr"/>
-      <c r="U723" s="3" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="3" t="inlineStr"/>
-      <c r="B724" s="3" t="inlineStr">
-        <is>
-          <t>toxicity pathway</t>
         </is>
       </c>
       <c r="C724" s="3" t="inlineStr"/>
@@ -38014,10 +38016,8 @@
       <c r="L724" s="3" t="inlineStr"/>
       <c r="M724" s="3" t="inlineStr"/>
       <c r="N724" s="3" t="inlineStr"/>
-      <c r="O724" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O724" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P724" s="3" t="inlineStr">
         <is>
@@ -38035,33 +38035,17 @@
       <c r="U724" s="3" t="inlineStr"/>
     </row>
     <row r="725">
-      <c r="A725" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000520</t>
-        </is>
-      </c>
+      <c r="A725" s="3" t="inlineStr"/>
       <c r="B725" s="3" t="inlineStr">
         <is>
-          <t>traffic accident</t>
-        </is>
-      </c>
-      <c r="C725" s="3" t="inlineStr">
-        <is>
-          <t>A process in which a vehicle collides with an object, person or vehicle, causing damage.</t>
-        </is>
-      </c>
+          <t>toxicity pathway</t>
+        </is>
+      </c>
+      <c r="C725" s="3" t="inlineStr"/>
       <c r="D725" s="3" t="inlineStr"/>
       <c r="E725" s="3" t="inlineStr"/>
-      <c r="F725" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G725" s="3" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+      <c r="F725" s="3" t="inlineStr"/>
+      <c r="G725" s="3" t="inlineStr"/>
       <c r="H725" s="3" t="inlineStr">
         <is>
           <t>Human being</t>
@@ -38096,49 +38080,45 @@
     <row r="726">
       <c r="A726" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001185</t>
+          <t>ADDICTO:0000520</t>
         </is>
       </c>
       <c r="B726" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">transgender person </t>
+          <t>traffic accident</t>
         </is>
       </c>
       <c r="C726" s="3" t="inlineStr">
         <is>
-          <t>A person whose gender identity does not match their gender assigned at birth or a person who otherwise identifies as transgender</t>
+          <t>A process in which a vehicle collides with an object, person or vehicle, causing damage.</t>
         </is>
       </c>
       <c r="D726" s="3" t="inlineStr"/>
       <c r="E726" s="3" t="inlineStr"/>
       <c r="F726" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">person </t>
-        </is>
-      </c>
-      <c r="G726" s="3" t="inlineStr"/>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G726" s="3" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="H726" s="3" t="inlineStr">
         <is>
           <t>Human being</t>
         </is>
       </c>
-      <c r="I726" s="3" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/GSSO_000130</t>
-        </is>
-      </c>
+      <c r="I726" s="3" t="inlineStr"/>
       <c r="J726" s="3" t="inlineStr"/>
-      <c r="K726" s="3" t="inlineStr">
-        <is>
-          <t>trans</t>
-        </is>
-      </c>
+      <c r="K726" s="3" t="inlineStr"/>
       <c r="L726" s="3" t="inlineStr"/>
       <c r="M726" s="3" t="inlineStr"/>
       <c r="N726" s="3" t="inlineStr"/>
       <c r="O726" s="3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P726" s="3" t="inlineStr">
@@ -38147,11 +38127,7 @@
         </is>
       </c>
       <c r="Q726" s="3" t="inlineStr"/>
-      <c r="R726" s="3" t="inlineStr">
-        <is>
-          <t>SC; JH</t>
-        </is>
-      </c>
+      <c r="R726" s="3" t="inlineStr"/>
       <c r="S726" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -38163,24 +38139,24 @@
     <row r="727">
       <c r="A727" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000934</t>
+          <t>ADDICTO:0001185</t>
         </is>
       </c>
       <c r="B727" s="3" t="inlineStr">
         <is>
-          <t>traumatic brain injury</t>
+          <t xml:space="preserve">transgender person </t>
         </is>
       </c>
       <c r="C727" s="3" t="inlineStr">
         <is>
-          <t>Brain injury as a result of trauma.</t>
+          <t>A person whose gender identity does not match their gender assigned at birth or a person who otherwise identifies as transgender</t>
         </is>
       </c>
       <c r="D727" s="3" t="inlineStr"/>
       <c r="E727" s="3" t="inlineStr"/>
       <c r="F727" s="3" t="inlineStr">
         <is>
-          <t>brain injury</t>
+          <t xml:space="preserve">person </t>
         </is>
       </c>
       <c r="G727" s="3" t="inlineStr"/>
@@ -38189,15 +38165,23 @@
           <t>Human being</t>
         </is>
       </c>
-      <c r="I727" s="3" t="inlineStr"/>
+      <c r="I727" s="3" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_000130</t>
+        </is>
+      </c>
       <c r="J727" s="3" t="inlineStr"/>
-      <c r="K727" s="3" t="inlineStr"/>
+      <c r="K727" s="3" t="inlineStr">
+        <is>
+          <t>trans</t>
+        </is>
+      </c>
       <c r="L727" s="3" t="inlineStr"/>
       <c r="M727" s="3" t="inlineStr"/>
       <c r="N727" s="3" t="inlineStr"/>
       <c r="O727" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="P727" s="3" t="inlineStr">
@@ -38208,7 +38192,7 @@
       <c r="Q727" s="3" t="inlineStr"/>
       <c r="R727" s="3" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="S727" s="3" t="inlineStr">
@@ -38222,24 +38206,24 @@
     <row r="728">
       <c r="A728" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000935</t>
+          <t>ADDICTO:0000934</t>
         </is>
       </c>
       <c r="B728" s="3" t="inlineStr">
         <is>
-          <t>treatment-seeking alcohol user</t>
+          <t>traumatic brain injury</t>
         </is>
       </c>
       <c r="C728" s="3" t="inlineStr">
         <is>
-          <t>An alcohol user who is currently seeking treatment for their alcohol use.</t>
+          <t>Brain injury as a result of trauma.</t>
         </is>
       </c>
       <c r="D728" s="3" t="inlineStr"/>
       <c r="E728" s="3" t="inlineStr"/>
       <c r="F728" s="3" t="inlineStr">
         <is>
-          <t>psychoactive substance user</t>
+          <t>brain injury</t>
         </is>
       </c>
       <c r="G728" s="3" t="inlineStr"/>
@@ -38281,17 +38265,17 @@
     <row r="729">
       <c r="A729" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001083</t>
+          <t>ADDICTO:0000935</t>
         </is>
       </c>
       <c r="B729" s="3" t="inlineStr">
         <is>
-          <t>treatment-seeking opioid user</t>
+          <t>treatment-seeking alcohol user</t>
         </is>
       </c>
       <c r="C729" s="3" t="inlineStr">
         <is>
-          <t>An opioid user who is currently seeking treatment for opioid use disorder</t>
+          <t>An alcohol user who is currently seeking treatment for their alcohol use.</t>
         </is>
       </c>
       <c r="D729" s="3" t="inlineStr"/>
@@ -38338,148 +38322,148 @@
       <c r="U729" s="3" t="inlineStr"/>
     </row>
     <row r="730">
-      <c r="A730" s="2" t="inlineStr">
+      <c r="A730" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001083</t>
+        </is>
+      </c>
+      <c r="B730" s="3" t="inlineStr">
+        <is>
+          <t>treatment-seeking opioid user</t>
+        </is>
+      </c>
+      <c r="C730" s="3" t="inlineStr">
+        <is>
+          <t>An opioid user who is currently seeking treatment for opioid use disorder</t>
+        </is>
+      </c>
+      <c r="D730" s="3" t="inlineStr"/>
+      <c r="E730" s="3" t="inlineStr"/>
+      <c r="F730" s="3" t="inlineStr">
+        <is>
+          <t>psychoactive substance user</t>
+        </is>
+      </c>
+      <c r="G730" s="3" t="inlineStr"/>
+      <c r="H730" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I730" s="3" t="inlineStr"/>
+      <c r="J730" s="3" t="inlineStr"/>
+      <c r="K730" s="3" t="inlineStr"/>
+      <c r="L730" s="3" t="inlineStr"/>
+      <c r="M730" s="3" t="inlineStr"/>
+      <c r="N730" s="3" t="inlineStr"/>
+      <c r="O730" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P730" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q730" s="3" t="inlineStr"/>
+      <c r="R730" s="3" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="S730" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T730" s="3" t="inlineStr"/>
+      <c r="U730" s="3" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000936</t>
         </is>
       </c>
-      <c r="B730" s="2" t="inlineStr">
+      <c r="B731" s="2" t="inlineStr">
         <is>
           <t>treatment-seeking substance user</t>
         </is>
       </c>
-      <c r="C730" s="2" t="inlineStr">
+      <c r="C731" s="2" t="inlineStr">
         <is>
           <t>A substance user who is in contact with a service to receive treatment for a substance use disorder.</t>
         </is>
       </c>
-      <c r="D730" s="2" t="inlineStr"/>
-      <c r="E730" s="2" t="inlineStr"/>
-      <c r="F730" s="2" t="inlineStr">
+      <c r="D731" s="2" t="inlineStr"/>
+      <c r="E731" s="2" t="inlineStr"/>
+      <c r="F731" s="2" t="inlineStr">
         <is>
           <t>substance user</t>
         </is>
       </c>
-      <c r="G730" s="2" t="inlineStr">
+      <c r="G731" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="H730" s="2" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I730" s="2" t="inlineStr"/>
-      <c r="J730" s="2" t="inlineStr"/>
-      <c r="K730" s="2" t="inlineStr"/>
-      <c r="L730" s="2" t="inlineStr"/>
-      <c r="M730" s="2" t="inlineStr"/>
-      <c r="N730" s="2" t="inlineStr"/>
-      <c r="O730" s="2" t="inlineStr">
+      <c r="H731" s="2" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I731" s="2" t="inlineStr"/>
+      <c r="J731" s="2" t="inlineStr"/>
+      <c r="K731" s="2" t="inlineStr"/>
+      <c r="L731" s="2" t="inlineStr"/>
+      <c r="M731" s="2" t="inlineStr"/>
+      <c r="N731" s="2" t="inlineStr"/>
+      <c r="O731" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="P730" s="2" t="inlineStr">
+      <c r="P731" s="2" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="Q730" s="2" t="inlineStr"/>
-      <c r="R730" s="2" t="inlineStr">
+      <c r="Q731" s="2" t="inlineStr"/>
+      <c r="R731" s="2" t="inlineStr">
         <is>
           <t>KS; RW</t>
         </is>
       </c>
-      <c r="S730" s="2" t="inlineStr">
+      <c r="S731" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T730" s="2" t="inlineStr"/>
-      <c r="U730" s="2" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000937</t>
-        </is>
-      </c>
-      <c r="B731" s="3" t="inlineStr">
-        <is>
-          <t>treatment-seeking, opioid dependent patient with/without chronic pain</t>
-        </is>
-      </c>
-      <c r="C731" s="3" t="inlineStr">
-        <is>
-          <t>An opioid dependant patient who is currently seeking treatment for their opioid use, who is with/without chronic pain.</t>
-        </is>
-      </c>
-      <c r="D731" s="3" t="inlineStr"/>
-      <c r="E731" s="3" t="inlineStr"/>
-      <c r="F731" s="3" t="inlineStr">
-        <is>
-          <t>opioid dependant patient</t>
-        </is>
-      </c>
-      <c r="G731" s="3" t="inlineStr"/>
-      <c r="H731" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I731" s="3" t="inlineStr"/>
-      <c r="J731" s="3" t="inlineStr"/>
-      <c r="K731" s="3" t="inlineStr"/>
-      <c r="L731" s="3" t="inlineStr"/>
-      <c r="M731" s="3" t="inlineStr"/>
-      <c r="N731" s="3" t="inlineStr"/>
-      <c r="O731" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P731" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q731" s="3" t="inlineStr"/>
-      <c r="R731" s="3" t="inlineStr">
-        <is>
-          <t>KS</t>
-        </is>
-      </c>
-      <c r="S731" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T731" s="3" t="inlineStr"/>
-      <c r="U731" s="3" t="inlineStr"/>
+      <c r="T731" s="2" t="inlineStr"/>
+      <c r="U731" s="2" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001051</t>
+          <t>ADDICTO:0000937</t>
         </is>
       </c>
       <c r="B732" s="3" t="inlineStr">
         <is>
-          <t>trimester</t>
+          <t>treatment-seeking, opioid dependent patient with/without chronic pain</t>
         </is>
       </c>
       <c r="C732" s="3" t="inlineStr">
         <is>
-          <t>A period of three months; especially one of the three months of gestation into which a human pregnancy is divided.</t>
+          <t>An opioid dependant patient who is currently seeking treatment for their opioid use, who is with/without chronic pain.</t>
         </is>
       </c>
       <c r="D732" s="3" t="inlineStr"/>
       <c r="E732" s="3" t="inlineStr"/>
       <c r="F732" s="3" t="inlineStr">
         <is>
-          <t>temporal region</t>
+          <t>opioid dependant patient</t>
         </is>
       </c>
       <c r="G732" s="3" t="inlineStr"/>
@@ -38507,7 +38491,7 @@
       <c r="Q732" s="3" t="inlineStr"/>
       <c r="R732" s="3" t="inlineStr">
         <is>
-          <t>KS; JH</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="S732" s="3" t="inlineStr">
@@ -38519,120 +38503,136 @@
       <c r="U732" s="3" t="inlineStr"/>
     </row>
     <row r="733">
-      <c r="A733" t="inlineStr">
+      <c r="A733" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001051</t>
+        </is>
+      </c>
+      <c r="B733" s="3" t="inlineStr">
+        <is>
+          <t>trimester</t>
+        </is>
+      </c>
+      <c r="C733" s="3" t="inlineStr">
+        <is>
+          <t>A period of three months; especially one of the three months of gestation into which a human pregnancy is divided.</t>
+        </is>
+      </c>
+      <c r="D733" s="3" t="inlineStr"/>
+      <c r="E733" s="3" t="inlineStr"/>
+      <c r="F733" s="3" t="inlineStr">
+        <is>
+          <t>temporal region</t>
+        </is>
+      </c>
+      <c r="G733" s="3" t="inlineStr"/>
+      <c r="H733" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I733" s="3" t="inlineStr"/>
+      <c r="J733" s="3" t="inlineStr"/>
+      <c r="K733" s="3" t="inlineStr"/>
+      <c r="L733" s="3" t="inlineStr"/>
+      <c r="M733" s="3" t="inlineStr"/>
+      <c r="N733" s="3" t="inlineStr"/>
+      <c r="O733" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P733" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q733" s="3" t="inlineStr"/>
+      <c r="R733" s="3" t="inlineStr">
+        <is>
+          <t>KS; JH</t>
+        </is>
+      </c>
+      <c r="S733" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T733" s="3" t="inlineStr"/>
+      <c r="U733" s="3" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
         <is>
           <t>DOID:399</t>
         </is>
       </c>
-      <c r="B733" t="inlineStr">
+      <c r="B734" t="inlineStr">
         <is>
           <t>tuberculosis</t>
         </is>
       </c>
-      <c r="C733" t="inlineStr">
+      <c r="C734" t="inlineStr">
         <is>
           <t>A primary bacterial infectious disease that is located_in lungs, located_in lymph nodes, located_in pericardium, located_in brain, located_in pleura or located_in gastrointestinal tract, has_material_basis_in Mycobacterium tuberculosis, which is transmitted_by droplets released into the air when an infected person coughs or sneezes.</t>
         </is>
       </c>
-      <c r="D733" t="inlineStr"/>
-      <c r="E733" t="inlineStr"/>
-      <c r="F733" t="inlineStr">
+      <c r="D734" t="inlineStr"/>
+      <c r="E734" t="inlineStr"/>
+      <c r="F734" t="inlineStr">
         <is>
           <t>primary bacterial infectious disease</t>
         </is>
       </c>
-      <c r="G733" t="inlineStr"/>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I733" t="inlineStr">
+      <c r="G734" t="inlineStr"/>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I734" t="inlineStr">
         <is>
           <t>DOID:399</t>
         </is>
       </c>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
         <is>
           <t>TB</t>
         </is>
       </c>
-      <c r="L733" t="inlineStr"/>
-      <c r="M733" t="inlineStr"/>
-      <c r="N733" t="inlineStr"/>
-      <c r="O733" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P733" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q733" t="inlineStr"/>
-      <c r="R733" t="inlineStr">
+      <c r="L734" t="inlineStr"/>
+      <c r="M734" t="inlineStr"/>
+      <c r="N734" t="inlineStr"/>
+      <c r="O734" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P734" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q734" t="inlineStr"/>
+      <c r="R734" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="S733" t="inlineStr">
+      <c r="S734" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T733" t="inlineStr"/>
-      <c r="U733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="3" t="inlineStr"/>
-      <c r="B734" s="3" t="inlineStr">
-        <is>
-          <t>twin</t>
-        </is>
-      </c>
-      <c r="C734" s="3" t="inlineStr"/>
-      <c r="D734" s="3" t="inlineStr"/>
-      <c r="E734" s="3" t="inlineStr"/>
-      <c r="F734" s="3" t="inlineStr"/>
-      <c r="G734" s="3" t="inlineStr"/>
-      <c r="H734" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I734" s="3" t="inlineStr"/>
-      <c r="J734" s="3" t="inlineStr"/>
-      <c r="K734" s="3" t="inlineStr"/>
-      <c r="L734" s="3" t="inlineStr"/>
-      <c r="M734" s="3" t="inlineStr"/>
-      <c r="N734" s="3" t="inlineStr"/>
-      <c r="O734" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P734" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q734" s="3" t="inlineStr"/>
-      <c r="R734" s="3" t="inlineStr"/>
-      <c r="S734" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T734" s="3" t="inlineStr"/>
-      <c r="U734" s="3" t="inlineStr"/>
+      <c r="T734" t="inlineStr"/>
+      <c r="U734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" s="3" t="inlineStr"/>
       <c r="B735" s="3" t="inlineStr">
         <is>
-          <t>underlying genetic liabilitly towards alchohol misuse</t>
+          <t>twin</t>
         </is>
       </c>
       <c r="C735" s="3" t="inlineStr"/>
@@ -38672,135 +38672,119 @@
       <c r="U735" s="3" t="inlineStr"/>
     </row>
     <row r="736">
-      <c r="A736" t="inlineStr">
+      <c r="A736" s="3" t="inlineStr"/>
+      <c r="B736" s="3" t="inlineStr">
+        <is>
+          <t>underlying genetic liabilitly towards alchohol misuse</t>
+        </is>
+      </c>
+      <c r="C736" s="3" t="inlineStr"/>
+      <c r="D736" s="3" t="inlineStr"/>
+      <c r="E736" s="3" t="inlineStr"/>
+      <c r="F736" s="3" t="inlineStr"/>
+      <c r="G736" s="3" t="inlineStr"/>
+      <c r="H736" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I736" s="3" t="inlineStr"/>
+      <c r="J736" s="3" t="inlineStr"/>
+      <c r="K736" s="3" t="inlineStr"/>
+      <c r="L736" s="3" t="inlineStr"/>
+      <c r="M736" s="3" t="inlineStr"/>
+      <c r="N736" s="3" t="inlineStr"/>
+      <c r="O736" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P736" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q736" s="3" t="inlineStr"/>
+      <c r="R736" s="3" t="inlineStr"/>
+      <c r="S736" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T736" s="3" t="inlineStr"/>
+      <c r="U736" s="3" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
         <is>
           <t xml:space="preserve">SDGIO:00010026 </t>
         </is>
       </c>
-      <c r="B736" t="inlineStr">
+      <c r="B737" t="inlineStr">
         <is>
           <t>unemployed status</t>
         </is>
       </c>
-      <c r="C736" t="inlineStr">
+      <c r="C737" t="inlineStr">
         <is>
           <t>A sociodemographic attribute inhering in a person by virtue of that person not bearing a role realised in an employment process, but being eligible for and currently seeking paid work.</t>
         </is>
       </c>
-      <c r="D736" t="inlineStr"/>
-      <c r="E736" t="inlineStr"/>
-      <c r="F736" t="inlineStr">
+      <c r="D737" t="inlineStr"/>
+      <c r="E737" t="inlineStr"/>
+      <c r="F737" t="inlineStr">
         <is>
           <t>sociodemographic attribute</t>
         </is>
       </c>
-      <c r="G736" t="inlineStr"/>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
-      <c r="M736" t="inlineStr"/>
-      <c r="N736" t="inlineStr"/>
-      <c r="O736" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P736" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q736" t="inlineStr"/>
-      <c r="R736" t="inlineStr">
+      <c r="G737" t="inlineStr"/>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="inlineStr"/>
+      <c r="M737" t="inlineStr"/>
+      <c r="N737" t="inlineStr"/>
+      <c r="O737" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P737" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q737" t="inlineStr"/>
+      <c r="R737" t="inlineStr">
         <is>
           <t>KS; JH</t>
         </is>
       </c>
-      <c r="S736" t="inlineStr">
+      <c r="S737" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T736" t="inlineStr"/>
-      <c r="U736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="3" t="inlineStr"/>
-      <c r="B737" s="3" t="inlineStr">
+      <c r="T737" t="inlineStr"/>
+      <c r="U737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="3" t="inlineStr"/>
+      <c r="B738" s="3" t="inlineStr">
         <is>
           <t>university staff member</t>
         </is>
       </c>
-      <c r="C737" s="3" t="inlineStr"/>
-      <c r="D737" s="3" t="inlineStr"/>
-      <c r="E737" s="3" t="inlineStr"/>
-      <c r="F737" s="3" t="inlineStr"/>
-      <c r="G737" s="3" t="inlineStr"/>
-      <c r="H737" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I737" s="3" t="inlineStr"/>
-      <c r="J737" s="3" t="inlineStr"/>
-      <c r="K737" s="3" t="inlineStr"/>
-      <c r="L737" s="3" t="inlineStr"/>
-      <c r="M737" s="3" t="inlineStr"/>
-      <c r="N737" s="3" t="inlineStr"/>
-      <c r="O737" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P737" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q737" s="3" t="inlineStr"/>
-      <c r="R737" s="3" t="inlineStr"/>
-      <c r="S737" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T737" s="3" t="inlineStr"/>
-      <c r="U737" s="3" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000407</t>
-        </is>
-      </c>
-      <c r="B738" s="3" t="inlineStr">
-        <is>
-          <t>urge</t>
-        </is>
-      </c>
-      <c r="C738" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that involves a feeling of strong impulse to engage in a behaviour.</t>
-        </is>
-      </c>
+      <c r="C738" s="3" t="inlineStr"/>
       <c r="D738" s="3" t="inlineStr"/>
       <c r="E738" s="3" t="inlineStr"/>
-      <c r="F738" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="G738" s="3" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+      <c r="F738" s="3" t="inlineStr"/>
+      <c r="G738" s="3" t="inlineStr"/>
       <c r="H738" s="3" t="inlineStr">
         <is>
           <t>Human being</t>
@@ -38835,24 +38819,24 @@
     <row r="739">
       <c r="A739" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000408</t>
+          <t>ADDICTO:0000407</t>
         </is>
       </c>
       <c r="B739" s="3" t="inlineStr">
         <is>
-          <t>urge to smoke</t>
+          <t>urge</t>
         </is>
       </c>
       <c r="C739" s="3" t="inlineStr">
         <is>
-          <t>An urge in which the behaviour that is the target of the feeling is smoking.</t>
+          <t>A mental process that involves a feeling of strong impulse to engage in a behaviour.</t>
         </is>
       </c>
       <c r="D739" s="3" t="inlineStr"/>
       <c r="E739" s="3" t="inlineStr"/>
       <c r="F739" s="3" t="inlineStr">
         <is>
-          <t>urge</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="G739" s="3" t="inlineStr">
@@ -38871,8 +38855,10 @@
       <c r="L739" s="3" t="inlineStr"/>
       <c r="M739" s="3" t="inlineStr"/>
       <c r="N739" s="3" t="inlineStr"/>
-      <c r="O739" s="3" t="n">
-        <v>1</v>
+      <c r="O739" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P739" s="3" t="inlineStr">
         <is>
@@ -38892,17 +38878,17 @@
     <row r="740">
       <c r="A740" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001088</t>
+          <t>ADDICTO:0000408</t>
         </is>
       </c>
       <c r="B740" s="3" t="inlineStr">
         <is>
-          <t>urge to vape</t>
+          <t>urge to smoke</t>
         </is>
       </c>
       <c r="C740" s="3" t="inlineStr">
         <is>
-          <t>An urge in which the behaviour that is the target of the feeling is vaping.</t>
+          <t>An urge in which the behaviour that is the target of the feeling is smoking.</t>
         </is>
       </c>
       <c r="D740" s="3" t="inlineStr"/>
@@ -38928,22 +38914,16 @@
       <c r="L740" s="3" t="inlineStr"/>
       <c r="M740" s="3" t="inlineStr"/>
       <c r="N740" s="3" t="inlineStr"/>
-      <c r="O740" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="O740" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P740" s="3" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q740" s="3" t="inlineStr"/>
-      <c r="R740" s="3" t="inlineStr">
-        <is>
-          <t>KS</t>
-        </is>
-      </c>
+      <c r="R740" s="3" t="inlineStr"/>
       <c r="S740" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -38953,17 +38933,33 @@
       <c r="U740" s="3" t="inlineStr"/>
     </row>
     <row r="741">
-      <c r="A741" s="3" t="inlineStr"/>
+      <c r="A741" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001088</t>
+        </is>
+      </c>
       <c r="B741" s="3" t="inlineStr">
         <is>
-          <t>urinary cotinine</t>
-        </is>
-      </c>
-      <c r="C741" s="3" t="inlineStr"/>
+          <t>urge to vape</t>
+        </is>
+      </c>
+      <c r="C741" s="3" t="inlineStr">
+        <is>
+          <t>An urge in which the behaviour that is the target of the feeling is vaping.</t>
+        </is>
+      </c>
       <c r="D741" s="3" t="inlineStr"/>
       <c r="E741" s="3" t="inlineStr"/>
-      <c r="F741" s="3" t="inlineStr"/>
-      <c r="G741" s="3" t="inlineStr"/>
+      <c r="F741" s="3" t="inlineStr">
+        <is>
+          <t>urge</t>
+        </is>
+      </c>
+      <c r="G741" s="3" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="H741" s="3" t="inlineStr">
         <is>
           <t>Human being</t>
@@ -38975,16 +38971,22 @@
       <c r="L741" s="3" t="inlineStr"/>
       <c r="M741" s="3" t="inlineStr"/>
       <c r="N741" s="3" t="inlineStr"/>
-      <c r="O741" s="3" t="n">
-        <v>1</v>
+      <c r="O741" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="P741" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>false</t>
         </is>
       </c>
       <c r="Q741" s="3" t="inlineStr"/>
-      <c r="R741" s="3" t="inlineStr"/>
+      <c r="R741" s="3" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
       <c r="S741" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -38997,7 +38999,7 @@
       <c r="A742" s="3" t="inlineStr"/>
       <c r="B742" s="3" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>urinary cotinine</t>
         </is>
       </c>
       <c r="C742" s="3" t="inlineStr"/>
@@ -39016,10 +39018,8 @@
       <c r="L742" s="3" t="inlineStr"/>
       <c r="M742" s="3" t="inlineStr"/>
       <c r="N742" s="3" t="inlineStr"/>
-      <c r="O742" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O742" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P742" s="3" t="inlineStr">
         <is>
@@ -39037,28 +39037,16 @@
       <c r="U742" s="3" t="inlineStr"/>
     </row>
     <row r="743">
-      <c r="A743" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000811</t>
-        </is>
-      </c>
+      <c r="A743" s="3" t="inlineStr"/>
       <c r="B743" s="3" t="inlineStr">
         <is>
-          <t>user of edible cannabis products</t>
-        </is>
-      </c>
-      <c r="C743" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A cannabis user who ingests cannabis through edible products. </t>
-        </is>
-      </c>
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="C743" s="3" t="inlineStr"/>
       <c r="D743" s="3" t="inlineStr"/>
       <c r="E743" s="3" t="inlineStr"/>
-      <c r="F743" s="3" t="inlineStr">
-        <is>
-          <t>cannabis user</t>
-        </is>
-      </c>
+      <c r="F743" s="3" t="inlineStr"/>
       <c r="G743" s="3" t="inlineStr"/>
       <c r="H743" s="3" t="inlineStr">
         <is>
@@ -39069,14 +39057,12 @@
       <c r="J743" s="3" t="inlineStr"/>
       <c r="K743" s="3" t="inlineStr"/>
       <c r="L743" s="3" t="inlineStr"/>
-      <c r="M743" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This defintion deliberately seperates cannabis smoking from the use of cannabis by edibles. </t>
-        </is>
-      </c>
+      <c r="M743" s="3" t="inlineStr"/>
       <c r="N743" s="3" t="inlineStr"/>
-      <c r="O743" s="3" t="n">
-        <v>1</v>
+      <c r="O743" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P743" s="3" t="inlineStr">
         <is>
@@ -39084,11 +39070,7 @@
         </is>
       </c>
       <c r="Q743" s="3" t="inlineStr"/>
-      <c r="R743" s="3" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="R743" s="3" t="inlineStr"/>
       <c r="S743" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -39098,130 +39080,138 @@
       <c r="U743" s="3" t="inlineStr"/>
     </row>
     <row r="744">
-      <c r="A744" s="4" t="inlineStr">
+      <c r="A744" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000811</t>
+        </is>
+      </c>
+      <c r="B744" s="3" t="inlineStr">
+        <is>
+          <t>user of edible cannabis products</t>
+        </is>
+      </c>
+      <c r="C744" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A cannabis user who ingests cannabis through edible products. </t>
+        </is>
+      </c>
+      <c r="D744" s="3" t="inlineStr"/>
+      <c r="E744" s="3" t="inlineStr"/>
+      <c r="F744" s="3" t="inlineStr">
+        <is>
+          <t>cannabis user</t>
+        </is>
+      </c>
+      <c r="G744" s="3" t="inlineStr"/>
+      <c r="H744" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I744" s="3" t="inlineStr"/>
+      <c r="J744" s="3" t="inlineStr"/>
+      <c r="K744" s="3" t="inlineStr"/>
+      <c r="L744" s="3" t="inlineStr"/>
+      <c r="M744" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This defintion deliberately seperates cannabis smoking from the use of cannabis by edibles. </t>
+        </is>
+      </c>
+      <c r="N744" s="3" t="inlineStr"/>
+      <c r="O744" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P744" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q744" s="3" t="inlineStr"/>
+      <c r="R744" s="3" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="S744" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T744" s="3" t="inlineStr"/>
+      <c r="U744" s="3" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000409</t>
         </is>
       </c>
-      <c r="B744" s="4" t="inlineStr">
+      <c r="B745" s="4" t="inlineStr">
         <is>
           <t>vaper identity</t>
         </is>
       </c>
-      <c r="C744" s="4" t="inlineStr">
+      <c r="C745" s="4" t="inlineStr">
         <is>
           <t>An identity in which a person represents themselves as a vaper.</t>
         </is>
       </c>
-      <c r="D744" s="4" t="inlineStr"/>
-      <c r="E744" s="4" t="inlineStr"/>
-      <c r="F744" s="4" t="inlineStr">
+      <c r="D745" s="4" t="inlineStr"/>
+      <c r="E745" s="4" t="inlineStr"/>
+      <c r="F745" s="4" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="G744" s="4" t="inlineStr"/>
-      <c r="H744" s="4" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I744" s="4" t="inlineStr"/>
-      <c r="J744" s="4" t="inlineStr"/>
-      <c r="K744" s="4" t="inlineStr"/>
-      <c r="L744" s="4" t="inlineStr"/>
-      <c r="M744" s="4" t="inlineStr"/>
-      <c r="N744" s="4" t="inlineStr"/>
-      <c r="O744" s="4" t="n">
+      <c r="G745" s="4" t="inlineStr"/>
+      <c r="H745" s="4" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I745" s="4" t="inlineStr"/>
+      <c r="J745" s="4" t="inlineStr"/>
+      <c r="K745" s="4" t="inlineStr"/>
+      <c r="L745" s="4" t="inlineStr"/>
+      <c r="M745" s="4" t="inlineStr"/>
+      <c r="N745" s="4" t="inlineStr"/>
+      <c r="O745" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P744" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q744" s="4" t="inlineStr"/>
-      <c r="R744" s="4" t="inlineStr">
+      <c r="P745" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q745" s="4" t="inlineStr"/>
+      <c r="R745" s="4" t="inlineStr">
         <is>
           <t>JH; SC; CN; RW</t>
         </is>
       </c>
-      <c r="S744" s="4" t="inlineStr">
+      <c r="S745" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T744" s="4" t="inlineStr">
+      <c r="T745" s="4" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U744" s="4" t="inlineStr"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="3" t="inlineStr"/>
-      <c r="B745" s="3" t="inlineStr">
+      <c r="U745" s="4" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="3" t="inlineStr"/>
+      <c r="B746" s="3" t="inlineStr">
         <is>
           <t>vulnerability to substance use</t>
         </is>
       </c>
-      <c r="C745" s="3" t="inlineStr"/>
-      <c r="D745" s="3" t="inlineStr"/>
-      <c r="E745" s="3" t="inlineStr"/>
-      <c r="F745" s="3" t="inlineStr"/>
-      <c r="G745" s="3" t="inlineStr"/>
-      <c r="H745" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I745" s="3" t="inlineStr"/>
-      <c r="J745" s="3" t="inlineStr"/>
-      <c r="K745" s="3" t="inlineStr"/>
-      <c r="L745" s="3" t="inlineStr"/>
-      <c r="M745" s="3" t="inlineStr"/>
-      <c r="N745" s="3" t="inlineStr"/>
-      <c r="O745" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P745" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q745" s="3" t="inlineStr"/>
-      <c r="R745" s="3" t="inlineStr"/>
-      <c r="S745" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T745" s="3" t="inlineStr"/>
-      <c r="U745" s="3" t="inlineStr"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001089</t>
-        </is>
-      </c>
-      <c r="B746" s="3" t="inlineStr">
-        <is>
-          <t>vulnerable adult</t>
-        </is>
-      </c>
-      <c r="C746" s="3" t="inlineStr">
-        <is>
-          <t>An adult who is unable to look after themselves and or who is unable to protect themselves against significant harm or exploitation.</t>
-        </is>
-      </c>
+      <c r="C746" s="3" t="inlineStr"/>
       <c r="D746" s="3" t="inlineStr"/>
       <c r="E746" s="3" t="inlineStr"/>
-      <c r="F746" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">adult </t>
-        </is>
-      </c>
+      <c r="F746" s="3" t="inlineStr"/>
       <c r="G746" s="3" t="inlineStr"/>
       <c r="H746" s="3" t="inlineStr">
         <is>
@@ -39230,18 +39220,12 @@
       </c>
       <c r="I746" s="3" t="inlineStr"/>
       <c r="J746" s="3" t="inlineStr"/>
-      <c r="K746" s="3" t="inlineStr">
-        <is>
-          <t>At risk adult</t>
-        </is>
-      </c>
+      <c r="K746" s="3" t="inlineStr"/>
       <c r="L746" s="3" t="inlineStr"/>
       <c r="M746" s="3" t="inlineStr"/>
       <c r="N746" s="3" t="inlineStr"/>
-      <c r="O746" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="O746" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P746" s="3" t="inlineStr">
         <is>
@@ -39249,44 +39233,36 @@
         </is>
       </c>
       <c r="Q746" s="3" t="inlineStr"/>
-      <c r="R746" s="3" t="inlineStr">
-        <is>
-          <t>SC; JH, CN</t>
-        </is>
-      </c>
+      <c r="R746" s="3" t="inlineStr"/>
       <c r="S746" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T746" s="3" t="inlineStr">
-        <is>
-          <t>RW; KS</t>
-        </is>
-      </c>
+      <c r="T746" s="3" t="inlineStr"/>
       <c r="U746" s="3" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000850</t>
+          <t>ADDICTO:0001089</t>
         </is>
       </c>
       <c r="B747" s="3" t="inlineStr">
         <is>
-          <t>waterpipe smoker</t>
+          <t>vulnerable adult</t>
         </is>
       </c>
       <c r="C747" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco-containing product user who reports using a waterpipe. </t>
+          <t>An adult who is unable to look after themselves and or who is unable to protect themselves against significant harm or exploitation.</t>
         </is>
       </c>
       <c r="D747" s="3" t="inlineStr"/>
       <c r="E747" s="3" t="inlineStr"/>
       <c r="F747" s="3" t="inlineStr">
         <is>
-          <t>tobacco-containing product user</t>
+          <t xml:space="preserve">adult </t>
         </is>
       </c>
       <c r="G747" s="3" t="inlineStr"/>
@@ -39299,14 +39275,16 @@
       <c r="J747" s="3" t="inlineStr"/>
       <c r="K747" s="3" t="inlineStr">
         <is>
-          <t>waterpipe user</t>
+          <t>At risk adult</t>
         </is>
       </c>
       <c r="L747" s="3" t="inlineStr"/>
       <c r="M747" s="3" t="inlineStr"/>
       <c r="N747" s="3" t="inlineStr"/>
-      <c r="O747" s="3" t="n">
-        <v>1</v>
+      <c r="O747" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="P747" s="3" t="inlineStr">
         <is>
@@ -39316,7 +39294,7 @@
       <c r="Q747" s="3" t="inlineStr"/>
       <c r="R747" s="3" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH, CN</t>
         </is>
       </c>
       <c r="S747" s="3" t="inlineStr">
@@ -39324,20 +39302,36 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T747" s="3" t="inlineStr"/>
+      <c r="T747" s="3" t="inlineStr">
+        <is>
+          <t>RW; KS</t>
+        </is>
+      </c>
       <c r="U747" s="3" t="inlineStr"/>
     </row>
     <row r="748">
-      <c r="A748" s="3" t="inlineStr"/>
+      <c r="A748" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000850</t>
+        </is>
+      </c>
       <c r="B748" s="3" t="inlineStr">
         <is>
-          <t>weekly alcohol consumption</t>
-        </is>
-      </c>
-      <c r="C748" s="3" t="inlineStr"/>
+          <t>waterpipe smoker</t>
+        </is>
+      </c>
+      <c r="C748" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A tobacco-containing product user who reports using a waterpipe. </t>
+        </is>
+      </c>
       <c r="D748" s="3" t="inlineStr"/>
       <c r="E748" s="3" t="inlineStr"/>
-      <c r="F748" s="3" t="inlineStr"/>
+      <c r="F748" s="3" t="inlineStr">
+        <is>
+          <t>tobacco-containing product user</t>
+        </is>
+      </c>
       <c r="G748" s="3" t="inlineStr"/>
       <c r="H748" s="3" t="inlineStr">
         <is>
@@ -39346,14 +39340,16 @@
       </c>
       <c r="I748" s="3" t="inlineStr"/>
       <c r="J748" s="3" t="inlineStr"/>
-      <c r="K748" s="3" t="inlineStr"/>
+      <c r="K748" s="3" t="inlineStr">
+        <is>
+          <t>waterpipe user</t>
+        </is>
+      </c>
       <c r="L748" s="3" t="inlineStr"/>
       <c r="M748" s="3" t="inlineStr"/>
       <c r="N748" s="3" t="inlineStr"/>
-      <c r="O748" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="O748" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P748" s="3" t="inlineStr">
         <is>
@@ -39361,7 +39357,11 @@
         </is>
       </c>
       <c r="Q748" s="3" t="inlineStr"/>
-      <c r="R748" s="3" t="inlineStr"/>
+      <c r="R748" s="3" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="S748" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -39374,7 +39374,7 @@
       <c r="A749" s="3" t="inlineStr"/>
       <c r="B749" s="3" t="inlineStr">
         <is>
-          <t>willingness to consume alcohol</t>
+          <t>weekly alcohol consumption</t>
         </is>
       </c>
       <c r="C749" s="3" t="inlineStr"/>
@@ -39389,11 +39389,7 @@
       </c>
       <c r="I749" s="3" t="inlineStr"/>
       <c r="J749" s="3" t="inlineStr"/>
-      <c r="K749" s="3" t="inlineStr">
-        <is>
-          <t>Willingness to drink</t>
-        </is>
-      </c>
+      <c r="K749" s="3" t="inlineStr"/>
       <c r="L749" s="3" t="inlineStr"/>
       <c r="M749" s="3" t="inlineStr"/>
       <c r="N749" s="3" t="inlineStr"/>
@@ -39421,7 +39417,7 @@
       <c r="A750" s="3" t="inlineStr"/>
       <c r="B750" s="3" t="inlineStr">
         <is>
-          <t>willingness-to-pay threshold</t>
+          <t>willingness to consume alcohol</t>
         </is>
       </c>
       <c r="C750" s="3" t="inlineStr"/>
@@ -39436,7 +39432,11 @@
       </c>
       <c r="I750" s="3" t="inlineStr"/>
       <c r="J750" s="3" t="inlineStr"/>
-      <c r="K750" s="3" t="inlineStr"/>
+      <c r="K750" s="3" t="inlineStr">
+        <is>
+          <t>Willingness to drink</t>
+        </is>
+      </c>
       <c r="L750" s="3" t="inlineStr"/>
       <c r="M750" s="3" t="inlineStr"/>
       <c r="N750" s="3" t="inlineStr"/>
@@ -39461,51 +39461,31 @@
       <c r="U750" s="3" t="inlineStr"/>
     </row>
     <row r="751">
-      <c r="A751" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001186</t>
-        </is>
-      </c>
+      <c r="A751" s="3" t="inlineStr"/>
       <c r="B751" s="3" t="inlineStr">
         <is>
-          <t>woman</t>
-        </is>
-      </c>
-      <c r="C751" s="3" t="inlineStr">
-        <is>
-          <t>A person whose identity is female, based on societal and cultural conceptualizations of being female, usually (but not always) reflected by specific anatomical variations, chromosome combinations, and/or sex hormones.</t>
-        </is>
-      </c>
+          <t>willingness-to-pay threshold</t>
+        </is>
+      </c>
+      <c r="C751" s="3" t="inlineStr"/>
       <c r="D751" s="3" t="inlineStr"/>
       <c r="E751" s="3" t="inlineStr"/>
-      <c r="F751" s="3" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="F751" s="3" t="inlineStr"/>
       <c r="G751" s="3" t="inlineStr"/>
       <c r="H751" s="3" t="inlineStr">
         <is>
           <t>Human being</t>
         </is>
       </c>
-      <c r="I751" s="3" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/GSSO_000369</t>
-        </is>
-      </c>
+      <c r="I751" s="3" t="inlineStr"/>
       <c r="J751" s="3" t="inlineStr"/>
-      <c r="K751" s="3" t="inlineStr">
-        <is>
-          <t>female; girl; women</t>
-        </is>
-      </c>
+      <c r="K751" s="3" t="inlineStr"/>
       <c r="L751" s="3" t="inlineStr"/>
       <c r="M751" s="3" t="inlineStr"/>
       <c r="N751" s="3" t="inlineStr"/>
       <c r="O751" s="3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P751" s="3" t="inlineStr">
@@ -39514,11 +39494,7 @@
         </is>
       </c>
       <c r="Q751" s="3" t="inlineStr"/>
-      <c r="R751" s="3" t="inlineStr">
-        <is>
-          <t>KS; SC; JH</t>
-        </is>
-      </c>
+      <c r="R751" s="3" t="inlineStr"/>
       <c r="S751" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -39530,24 +39506,24 @@
     <row r="752">
       <c r="A752" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001187</t>
+          <t>ADDICTO:0001186</t>
         </is>
       </c>
       <c r="B752" s="3" t="inlineStr">
         <is>
-          <t>woman who has sex with men</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="C752" s="3" t="inlineStr">
         <is>
-          <t>Women who engage in sexual activity with men, regardless of how they identify themselves.</t>
+          <t>A person whose identity is female, based on societal and cultural conceptualizations of being female, usually (but not always) reflected by specific anatomical variations, chromosome combinations, and/or sex hormones.</t>
         </is>
       </c>
       <c r="D752" s="3" t="inlineStr"/>
       <c r="E752" s="3" t="inlineStr"/>
       <c r="F752" s="3" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G752" s="3" t="inlineStr"/>
@@ -39558,11 +39534,15 @@
       </c>
       <c r="I752" s="3" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/GSSO_001595</t>
+          <t>http://purl.obolibrary.org/obo/GSSO_000369</t>
         </is>
       </c>
       <c r="J752" s="3" t="inlineStr"/>
-      <c r="K752" s="3" t="inlineStr"/>
+      <c r="K752" s="3" t="inlineStr">
+        <is>
+          <t>female; girl; women</t>
+        </is>
+      </c>
       <c r="L752" s="3" t="inlineStr"/>
       <c r="M752" s="3" t="inlineStr"/>
       <c r="N752" s="3" t="inlineStr"/>
@@ -39579,7 +39559,7 @@
       <c r="Q752" s="3" t="inlineStr"/>
       <c r="R752" s="3" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>KS; SC; JH</t>
         </is>
       </c>
       <c r="S752" s="3" t="inlineStr">
@@ -39593,17 +39573,17 @@
     <row r="753">
       <c r="A753" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001188</t>
+          <t>ADDICTO:0001187</t>
         </is>
       </c>
       <c r="B753" s="3" t="inlineStr">
         <is>
-          <t>woman who has sex with men and women</t>
+          <t>woman who has sex with men</t>
         </is>
       </c>
       <c r="C753" s="3" t="inlineStr">
         <is>
-          <t>Female persons who engage in sexual activity with men and women, regardless of how they identify themselves.</t>
+          <t>Women who engage in sexual activity with men, regardless of how they identify themselves.</t>
         </is>
       </c>
       <c r="D753" s="3" t="inlineStr"/>
@@ -39621,7 +39601,7 @@
       </c>
       <c r="I753" s="3" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/GSSO_004516</t>
+          <t>http://purl.obolibrary.org/obo/GSSO_001595</t>
         </is>
       </c>
       <c r="J753" s="3" t="inlineStr"/>
@@ -39656,17 +39636,17 @@
     <row r="754">
       <c r="A754" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001189</t>
+          <t>ADDICTO:0001188</t>
         </is>
       </c>
       <c r="B754" s="3" t="inlineStr">
         <is>
-          <t>woman who has sex with women</t>
+          <t>woman who has sex with men and women</t>
         </is>
       </c>
       <c r="C754" s="3" t="inlineStr">
         <is>
-          <t>Women who engage in sexual activities with other women, whether or not they identify themselves as lesbian, bisexual, heterosexual, or dispense with sexual identification altogether.</t>
+          <t>Female persons who engage in sexual activity with men and women, regardless of how they identify themselves.</t>
         </is>
       </c>
       <c r="D754" s="3" t="inlineStr"/>
@@ -39684,7 +39664,7 @@
       </c>
       <c r="I754" s="3" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/GSSO_000379</t>
+          <t>http://purl.obolibrary.org/obo/GSSO_004516</t>
         </is>
       </c>
       <c r="J754" s="3" t="inlineStr"/>
@@ -39719,17 +39699,17 @@
     <row r="755">
       <c r="A755" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000939</t>
+          <t>ADDICTO:0001189</t>
         </is>
       </c>
       <c r="B755" s="3" t="inlineStr">
         <is>
-          <t>woman who uses psychoactive drugs</t>
+          <t>woman who has sex with women</t>
         </is>
       </c>
       <c r="C755" s="3" t="inlineStr">
         <is>
-          <t>A woman who self identifies as using psychoactive substances.</t>
+          <t>Women who engage in sexual activities with other women, whether or not they identify themselves as lesbian, bisexual, heterosexual, or dispense with sexual identification altogether.</t>
         </is>
       </c>
       <c r="D755" s="3" t="inlineStr"/>
@@ -39745,7 +39725,11 @@
           <t>Human being</t>
         </is>
       </c>
-      <c r="I755" s="3" t="inlineStr"/>
+      <c r="I755" s="3" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_000379</t>
+        </is>
+      </c>
       <c r="J755" s="3" t="inlineStr"/>
       <c r="K755" s="3" t="inlineStr"/>
       <c r="L755" s="3" t="inlineStr"/>
@@ -39753,7 +39737,7 @@
       <c r="N755" s="3" t="inlineStr"/>
       <c r="O755" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="P755" s="3" t="inlineStr">
@@ -39764,7 +39748,7 @@
       <c r="Q755" s="3" t="inlineStr"/>
       <c r="R755" s="3" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="S755" s="3" t="inlineStr">
@@ -39778,17 +39762,17 @@
     <row r="756">
       <c r="A756" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000940</t>
+          <t>ADDICTO:0000939</t>
         </is>
       </c>
       <c r="B756" s="3" t="inlineStr">
         <is>
-          <t>woman with MDUI convictions</t>
+          <t>woman who uses psychoactive drugs</t>
         </is>
       </c>
       <c r="C756" s="3" t="inlineStr">
         <is>
-          <t>A woman who has convictions for driving under the influence.</t>
+          <t>A woman who self identifies as using psychoactive substances.</t>
         </is>
       </c>
       <c r="D756" s="3" t="inlineStr"/>
@@ -39837,24 +39821,24 @@
     <row r="757">
       <c r="A757" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001094</t>
+          <t>ADDICTO:0000940</t>
         </is>
       </c>
       <c r="B757" s="3" t="inlineStr">
         <is>
-          <t>years of education</t>
+          <t>woman with MDUI convictions</t>
         </is>
       </c>
       <c r="C757" s="3" t="inlineStr">
         <is>
-          <t>A data item that indicates the number of years an individual was or has been in  education.</t>
+          <t>A woman who has convictions for driving under the influence.</t>
         </is>
       </c>
       <c r="D757" s="3" t="inlineStr"/>
       <c r="E757" s="3" t="inlineStr"/>
       <c r="F757" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="G757" s="3" t="inlineStr"/>
@@ -39896,24 +39880,24 @@
     <row r="758">
       <c r="A758" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000941</t>
+          <t>ADDICTO:0001094</t>
         </is>
       </c>
       <c r="B758" s="3" t="inlineStr">
         <is>
-          <t>young adult</t>
+          <t>years of education</t>
         </is>
       </c>
       <c r="C758" s="3" t="inlineStr">
         <is>
-          <t>A person who is in their late teenage years, or early twenties.</t>
+          <t>A data item that indicates the number of years an individual was or has been in  education.</t>
         </is>
       </c>
       <c r="D758" s="3" t="inlineStr"/>
       <c r="E758" s="3" t="inlineStr"/>
       <c r="F758" s="3" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="G758" s="3" t="inlineStr"/>
@@ -39924,34 +39908,24 @@
       </c>
       <c r="I758" s="3" t="inlineStr"/>
       <c r="J758" s="3" t="inlineStr"/>
-      <c r="K758" s="3" t="inlineStr">
-        <is>
-          <t>young person</t>
-        </is>
-      </c>
+      <c r="K758" s="3" t="inlineStr"/>
       <c r="L758" s="3" t="inlineStr"/>
-      <c r="M758" s="3" t="inlineStr">
-        <is>
-          <t>Age range should be specified.</t>
-        </is>
-      </c>
+      <c r="M758" s="3" t="inlineStr"/>
       <c r="N758" s="3" t="inlineStr"/>
       <c r="O758" s="3" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="P758" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q758" s="3" t="inlineStr">
-        <is>
-          <t>Age at which 'young adult' starts can vary.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P758" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q758" s="3" t="inlineStr"/>
       <c r="R758" s="3" t="inlineStr">
         <is>
-          <t>KS; JH</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="S758" s="3" t="inlineStr">
@@ -39965,28 +39939,24 @@
     <row r="759">
       <c r="A759" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000942</t>
+          <t>ADDICTO:0000941</t>
         </is>
       </c>
       <c r="B759" s="3" t="inlineStr">
         <is>
-          <t>young adult alcohol user</t>
+          <t>young adult</t>
         </is>
       </c>
       <c r="C759" s="3" t="inlineStr">
         <is>
-          <t>A young adult who uses alcohol.</t>
+          <t>A person who is in their late teenage years, or early twenties.</t>
         </is>
       </c>
       <c r="D759" s="3" t="inlineStr"/>
-      <c r="E759" s="3" t="inlineStr">
-        <is>
-          <t>'young adult' and 'alcohol user'</t>
-        </is>
-      </c>
+      <c r="E759" s="3" t="inlineStr"/>
       <c r="F759" s="3" t="inlineStr">
         <is>
-          <t>alcohol user</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G759" s="3" t="inlineStr"/>
@@ -39997,11 +39967,15 @@
       </c>
       <c r="I759" s="3" t="inlineStr"/>
       <c r="J759" s="3" t="inlineStr"/>
-      <c r="K759" s="3" t="inlineStr"/>
+      <c r="K759" s="3" t="inlineStr">
+        <is>
+          <t>young person</t>
+        </is>
+      </c>
       <c r="L759" s="3" t="inlineStr"/>
       <c r="M759" s="3" t="inlineStr">
         <is>
-          <t>Age (or range) should be specified</t>
+          <t>Age range should be specified.</t>
         </is>
       </c>
       <c r="N759" s="3" t="inlineStr"/>
@@ -40020,7 +39994,7 @@
       </c>
       <c r="R759" s="3" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>KS; JH</t>
         </is>
       </c>
       <c r="S759" s="3" t="inlineStr">
@@ -40034,24 +40008,28 @@
     <row r="760">
       <c r="A760" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000943</t>
+          <t>ADDICTO:0000942</t>
         </is>
       </c>
       <c r="B760" s="3" t="inlineStr">
         <is>
-          <t>young adult binge drinker</t>
+          <t>young adult alcohol user</t>
         </is>
       </c>
       <c r="C760" s="3" t="inlineStr">
         <is>
-          <t>A young adult who self-reports as a binge drinker.</t>
+          <t>A young adult who uses alcohol.</t>
         </is>
       </c>
       <c r="D760" s="3" t="inlineStr"/>
-      <c r="E760" s="3" t="inlineStr"/>
+      <c r="E760" s="3" t="inlineStr">
+        <is>
+          <t>'young adult' and 'alcohol user'</t>
+        </is>
+      </c>
       <c r="F760" s="3" t="inlineStr">
         <is>
-          <t>young adult</t>
+          <t>alcohol user</t>
         </is>
       </c>
       <c r="G760" s="3" t="inlineStr"/>
@@ -40061,26 +40039,28 @@
         </is>
       </c>
       <c r="I760" s="3" t="inlineStr"/>
-      <c r="J760" s="3" t="inlineStr">
-        <is>
-          <t>'young adult' and 'binge drinker'</t>
-        </is>
-      </c>
+      <c r="J760" s="3" t="inlineStr"/>
       <c r="K760" s="3" t="inlineStr"/>
       <c r="L760" s="3" t="inlineStr"/>
-      <c r="M760" s="3" t="inlineStr"/>
+      <c r="M760" s="3" t="inlineStr">
+        <is>
+          <t>Age (or range) should be specified</t>
+        </is>
+      </c>
       <c r="N760" s="3" t="inlineStr"/>
       <c r="O760" s="3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P760" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q760" s="3" t="inlineStr"/>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P760" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q760" s="3" t="inlineStr">
+        <is>
+          <t>Age at which 'young adult' starts can vary.</t>
+        </is>
+      </c>
       <c r="R760" s="3" t="inlineStr">
         <is>
           <t>KS</t>
@@ -40095,13 +40075,21 @@
       <c r="U760" s="3" t="inlineStr"/>
     </row>
     <row r="761">
-      <c r="A761" s="3" t="inlineStr"/>
+      <c r="A761" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000943</t>
+        </is>
+      </c>
       <c r="B761" s="3" t="inlineStr">
         <is>
-          <t>young adult opioid use disorder population</t>
-        </is>
-      </c>
-      <c r="C761" s="3" t="inlineStr"/>
+          <t>young adult binge drinker</t>
+        </is>
+      </c>
+      <c r="C761" s="3" t="inlineStr">
+        <is>
+          <t>A young adult who self-reports as a binge drinker.</t>
+        </is>
+      </c>
       <c r="D761" s="3" t="inlineStr"/>
       <c r="E761" s="3" t="inlineStr"/>
       <c r="F761" s="3" t="inlineStr">
@@ -40116,7 +40104,11 @@
         </is>
       </c>
       <c r="I761" s="3" t="inlineStr"/>
-      <c r="J761" s="3" t="inlineStr"/>
+      <c r="J761" s="3" t="inlineStr">
+        <is>
+          <t>'young adult' and 'binge drinker'</t>
+        </is>
+      </c>
       <c r="K761" s="3" t="inlineStr"/>
       <c r="L761" s="3" t="inlineStr"/>
       <c r="M761" s="3" t="inlineStr"/>
@@ -40146,30 +40138,18 @@
       <c r="U761" s="3" t="inlineStr"/>
     </row>
     <row r="762">
-      <c r="A762" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001090</t>
-        </is>
-      </c>
+      <c r="A762" s="3" t="inlineStr"/>
       <c r="B762" s="3" t="inlineStr">
         <is>
-          <t>young adult opioid user</t>
-        </is>
-      </c>
-      <c r="C762" s="3" t="inlineStr">
-        <is>
-          <t>A young adult who uses opioids.</t>
-        </is>
-      </c>
+          <t>young adult opioid use disorder population</t>
+        </is>
+      </c>
+      <c r="C762" s="3" t="inlineStr"/>
       <c r="D762" s="3" t="inlineStr"/>
-      <c r="E762" s="3" t="inlineStr">
-        <is>
-          <t>'young adult' and 'opioid user'</t>
-        </is>
-      </c>
+      <c r="E762" s="3" t="inlineStr"/>
       <c r="F762" s="3" t="inlineStr">
         <is>
-          <t>opioid user</t>
+          <t>young adult</t>
         </is>
       </c>
       <c r="G762" s="3" t="inlineStr"/>
@@ -40182,25 +40162,19 @@
       <c r="J762" s="3" t="inlineStr"/>
       <c r="K762" s="3" t="inlineStr"/>
       <c r="L762" s="3" t="inlineStr"/>
-      <c r="M762" s="3" t="inlineStr">
-        <is>
-          <t>Age should be specified</t>
-        </is>
-      </c>
+      <c r="M762" s="3" t="inlineStr"/>
       <c r="N762" s="3" t="inlineStr"/>
       <c r="O762" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P762" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q762" s="3" t="inlineStr">
-        <is>
-          <t>Age at which 'young adult' starts can vary.</t>
-        </is>
-      </c>
+      <c r="P762" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q762" s="3" t="inlineStr"/>
       <c r="R762" s="3" t="inlineStr">
         <is>
           <t>KS</t>
@@ -40215,75 +40189,144 @@
       <c r="U762" s="3" t="inlineStr"/>
     </row>
     <row r="763">
-      <c r="A763" s="2" t="inlineStr">
+      <c r="A763" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001090</t>
+        </is>
+      </c>
+      <c r="B763" s="3" t="inlineStr">
+        <is>
+          <t>young adult opioid user</t>
+        </is>
+      </c>
+      <c r="C763" s="3" t="inlineStr">
+        <is>
+          <t>A young adult who uses opioids.</t>
+        </is>
+      </c>
+      <c r="D763" s="3" t="inlineStr"/>
+      <c r="E763" s="3" t="inlineStr">
+        <is>
+          <t>'young adult' and 'opioid user'</t>
+        </is>
+      </c>
+      <c r="F763" s="3" t="inlineStr">
+        <is>
+          <t>opioid user</t>
+        </is>
+      </c>
+      <c r="G763" s="3" t="inlineStr"/>
+      <c r="H763" s="3" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I763" s="3" t="inlineStr"/>
+      <c r="J763" s="3" t="inlineStr"/>
+      <c r="K763" s="3" t="inlineStr"/>
+      <c r="L763" s="3" t="inlineStr"/>
+      <c r="M763" s="3" t="inlineStr">
+        <is>
+          <t>Age should be specified</t>
+        </is>
+      </c>
+      <c r="N763" s="3" t="inlineStr"/>
+      <c r="O763" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P763" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q763" s="3" t="inlineStr">
+        <is>
+          <t>Age at which 'young adult' starts can vary.</t>
+        </is>
+      </c>
+      <c r="R763" s="3" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="S763" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T763" s="3" t="inlineStr"/>
+      <c r="U763" s="3" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000410</t>
         </is>
       </c>
-      <c r="B763" s="2" t="inlineStr">
+      <c r="B764" s="2" t="inlineStr">
         <is>
           <t>young person</t>
         </is>
       </c>
-      <c r="C763" s="2" t="inlineStr">
+      <c r="C764" s="2" t="inlineStr">
         <is>
           <t>A person whose age is less than that of an adult.</t>
         </is>
       </c>
-      <c r="D763" s="2" t="inlineStr">
+      <c r="D764" s="2" t="inlineStr">
         <is>
           <t>A person who has not reached adulthood, from infancy to adolescence.</t>
         </is>
       </c>
-      <c r="E763" s="2" t="inlineStr"/>
-      <c r="F763" s="2" t="inlineStr">
+      <c r="E764" s="2" t="inlineStr"/>
+      <c r="F764" s="2" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="G763" s="2" t="inlineStr">
+      <c r="G764" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="H763" s="2" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I763" s="2" t="inlineStr"/>
-      <c r="J763" s="2" t="inlineStr"/>
-      <c r="K763" s="2" t="inlineStr"/>
-      <c r="L763" s="2" t="inlineStr"/>
-      <c r="M763" s="2" t="inlineStr">
+      <c r="H764" s="2" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I764" s="2" t="inlineStr"/>
+      <c r="J764" s="2" t="inlineStr"/>
+      <c r="K764" s="2" t="inlineStr"/>
+      <c r="L764" s="2" t="inlineStr"/>
+      <c r="M764" s="2" t="inlineStr">
         <is>
           <t>This class is different from 'youth' and is intended to cover any person from birth up to adulthood. It includes, infant, child, and adolescent.</t>
         </is>
       </c>
-      <c r="N763" s="2" t="inlineStr"/>
-      <c r="O763" s="2" t="n">
+      <c r="N764" s="2" t="inlineStr"/>
+      <c r="O764" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P763" s="2" t="n">
+      <c r="P764" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q763" s="2" t="inlineStr">
+      <c r="Q764" s="2" t="inlineStr">
         <is>
           <t>Unclear age boundaries.</t>
         </is>
       </c>
-      <c r="R763" s="2" t="inlineStr">
+      <c r="R764" s="2" t="inlineStr">
         <is>
           <t>All; KS; JH; RW</t>
         </is>
       </c>
-      <c r="S763" s="2" t="inlineStr">
+      <c r="S764" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T763" s="2" t="inlineStr"/>
-      <c r="U763" s="2" t="inlineStr"/>
+      <c r="T764" s="2" t="inlineStr"/>
+      <c r="U764" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -613,7 +613,11 @@
         </is>
       </c>
       <c r="Q2" s="2" t="inlineStr"/>
-      <c r="R2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="S2" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
@@ -37076,8 +37080,12 @@
       <c r="L708" t="inlineStr"/>
       <c r="M708" t="inlineStr"/>
       <c r="N708" t="inlineStr"/>
-      <c r="O708" t="inlineStr"/>
-      <c r="P708" t="inlineStr"/>
+      <c r="O708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P708" t="n">
+        <v>0</v>
+      </c>
       <c r="Q708" t="inlineStr"/>
       <c r="R708" t="inlineStr">
         <is>

--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -3584,59 +3584,59 @@
       <c r="U54" s="7" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="inlineStr">
+      <c r="A55" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0001048</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="B55" s="7" t="inlineStr">
         <is>
           <t>alcohol use disorder</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C55" s="7" t="inlineStr">
         <is>
           <t>An addictive disorder in which the behaviour that is the subject of the addiction is use of alcohol.</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr"/>
-      <c r="E55" s="3" t="inlineStr"/>
-      <c r="F55" s="3" t="inlineStr">
+      <c r="D55" s="7" t="inlineStr"/>
+      <c r="E55" s="7" t="inlineStr"/>
+      <c r="F55" s="7" t="inlineStr">
         <is>
           <t>addictive disorder</t>
         </is>
       </c>
-      <c r="G55" s="3" t="inlineStr"/>
-      <c r="H55" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I55" s="3" t="inlineStr"/>
-      <c r="J55" s="3" t="inlineStr"/>
-      <c r="K55" s="3" t="inlineStr"/>
-      <c r="L55" s="3" t="inlineStr"/>
-      <c r="M55" s="3" t="inlineStr"/>
-      <c r="N55" s="3" t="inlineStr"/>
-      <c r="O55" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P55" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q55" s="3" t="inlineStr"/>
-      <c r="R55" s="3" t="inlineStr"/>
-      <c r="S55" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T55" s="3" t="inlineStr"/>
-      <c r="U55" s="3" t="inlineStr"/>
+      <c r="G55" s="7" t="inlineStr"/>
+      <c r="H55" s="7" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I55" s="7" t="inlineStr"/>
+      <c r="J55" s="7" t="inlineStr"/>
+      <c r="K55" s="7" t="inlineStr"/>
+      <c r="L55" s="7" t="inlineStr"/>
+      <c r="M55" s="7" t="inlineStr"/>
+      <c r="N55" s="7" t="inlineStr"/>
+      <c r="O55" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P55" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q55" s="7" t="inlineStr"/>
+      <c r="R55" s="7" t="inlineStr"/>
+      <c r="S55" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T55" s="7" t="inlineStr"/>
+      <c r="U55" s="7" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
@@ -4388,63 +4388,63 @@
       <c r="U70" s="7" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="inlineStr">
+      <c r="A71" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0001053</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B71" s="7" t="inlineStr">
         <is>
           <t>amphetamine use disorder</t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr">
+      <c r="C71" s="7" t="inlineStr">
         <is>
           <t>An addictive disorder in which the behaviour that is the subject of the addiction is use of amphetamine.</t>
         </is>
       </c>
-      <c r="D71" s="3" t="inlineStr"/>
-      <c r="E71" s="3" t="inlineStr"/>
-      <c r="F71" s="3" t="inlineStr">
+      <c r="D71" s="7" t="inlineStr"/>
+      <c r="E71" s="7" t="inlineStr"/>
+      <c r="F71" s="7" t="inlineStr">
         <is>
           <t>addictive disorder</t>
         </is>
       </c>
-      <c r="G71" s="3" t="inlineStr"/>
-      <c r="H71" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I71" s="3" t="inlineStr"/>
-      <c r="J71" s="3" t="inlineStr"/>
-      <c r="K71" s="3" t="inlineStr"/>
-      <c r="L71" s="3" t="inlineStr"/>
-      <c r="M71" s="3" t="inlineStr"/>
-      <c r="N71" s="3" t="inlineStr"/>
-      <c r="O71" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P71" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q71" s="3" t="inlineStr"/>
-      <c r="R71" s="3" t="inlineStr">
+      <c r="G71" s="7" t="inlineStr"/>
+      <c r="H71" s="7" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I71" s="7" t="inlineStr"/>
+      <c r="J71" s="7" t="inlineStr"/>
+      <c r="K71" s="7" t="inlineStr"/>
+      <c r="L71" s="7" t="inlineStr"/>
+      <c r="M71" s="7" t="inlineStr"/>
+      <c r="N71" s="7" t="inlineStr"/>
+      <c r="O71" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P71" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q71" s="7" t="inlineStr"/>
+      <c r="R71" s="7" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="S71" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T71" s="3" t="inlineStr"/>
-      <c r="U71" s="3" t="inlineStr"/>
+      <c r="S71" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T71" s="7" t="inlineStr"/>
+      <c r="U71" s="7" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
@@ -6940,56 +6940,67 @@
       <c r="U121" s="3" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0001058</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="7" t="inlineStr">
         <is>
           <t>cannabis use disorder</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="7" t="inlineStr">
         <is>
           <t>An addictive disorder in which the behaviour that is the subject of the addiction is use of cannabis.</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="D122" s="7" t="n"/>
+      <c r="E122" s="7" t="n"/>
+      <c r="F122" s="7" t="inlineStr">
         <is>
           <t>addictive disorder</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
+      <c r="G122" s="7" t="n"/>
+      <c r="H122" s="7" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I122" s="7" t="n"/>
+      <c r="J122" s="7" t="n"/>
+      <c r="K122" s="7" t="inlineStr">
         <is>
           <t>CUD</t>
         </is>
       </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R122" t="inlineStr">
+      <c r="L122" s="7" t="n"/>
+      <c r="M122" s="7" t="n"/>
+      <c r="N122" s="7" t="n"/>
+      <c r="O122" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P122" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q122" s="7" t="n"/>
+      <c r="R122" s="7" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="S122" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T122" s="7" t="n"/>
+      <c r="U122" s="7" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
@@ -9057,63 +9068,63 @@
       <c r="U164" s="7" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="inlineStr">
+      <c r="A165" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0001061</t>
         </is>
       </c>
-      <c r="B165" s="3" t="inlineStr">
+      <c r="B165" s="7" t="inlineStr">
         <is>
           <t>cocaine use disorder</t>
         </is>
       </c>
-      <c r="C165" s="3" t="inlineStr">
+      <c r="C165" s="7" t="inlineStr">
         <is>
           <t>An addictive disorder in which the behaviour that is the subject of the addiction is use of cocaine.</t>
         </is>
       </c>
-      <c r="D165" s="3" t="inlineStr"/>
-      <c r="E165" s="3" t="inlineStr"/>
-      <c r="F165" s="3" t="inlineStr">
+      <c r="D165" s="7" t="inlineStr"/>
+      <c r="E165" s="7" t="inlineStr"/>
+      <c r="F165" s="7" t="inlineStr">
         <is>
           <t>addictive disorder</t>
         </is>
       </c>
-      <c r="G165" s="3" t="inlineStr"/>
-      <c r="H165" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I165" s="3" t="inlineStr"/>
-      <c r="J165" s="3" t="inlineStr"/>
-      <c r="K165" s="3" t="inlineStr"/>
-      <c r="L165" s="3" t="inlineStr"/>
-      <c r="M165" s="3" t="inlineStr"/>
-      <c r="N165" s="3" t="inlineStr"/>
-      <c r="O165" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P165" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q165" s="3" t="inlineStr"/>
-      <c r="R165" s="3" t="inlineStr">
+      <c r="G165" s="7" t="inlineStr"/>
+      <c r="H165" s="7" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I165" s="7" t="inlineStr"/>
+      <c r="J165" s="7" t="inlineStr"/>
+      <c r="K165" s="7" t="inlineStr"/>
+      <c r="L165" s="7" t="inlineStr"/>
+      <c r="M165" s="7" t="inlineStr"/>
+      <c r="N165" s="7" t="inlineStr"/>
+      <c r="O165" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P165" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q165" s="7" t="inlineStr"/>
+      <c r="R165" s="7" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="S165" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T165" s="3" t="inlineStr"/>
-      <c r="U165" s="3" t="inlineStr"/>
+      <c r="S165" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T165" s="7" t="inlineStr"/>
+      <c r="U165" s="7" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
@@ -23721,63 +23732,63 @@
       <c r="U453" s="7" t="inlineStr"/>
     </row>
     <row r="454">
-      <c r="A454" s="3" t="inlineStr">
+      <c r="A454" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0001071</t>
         </is>
       </c>
-      <c r="B454" s="3" t="inlineStr">
+      <c r="B454" s="7" t="inlineStr">
         <is>
           <t>opioid use disorder</t>
         </is>
       </c>
-      <c r="C454" s="3" t="inlineStr">
+      <c r="C454" s="7" t="inlineStr">
         <is>
           <t>An addictive disorder in which the behaviour that is the subject of the addiction is use of a opioids</t>
         </is>
       </c>
-      <c r="D454" s="3" t="inlineStr"/>
-      <c r="E454" s="3" t="inlineStr"/>
-      <c r="F454" s="3" t="inlineStr">
+      <c r="D454" s="7" t="inlineStr"/>
+      <c r="E454" s="7" t="inlineStr"/>
+      <c r="F454" s="7" t="inlineStr">
         <is>
           <t>addictive disorder</t>
         </is>
       </c>
-      <c r="G454" s="3" t="inlineStr"/>
-      <c r="H454" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I454" s="3" t="inlineStr"/>
-      <c r="J454" s="3" t="inlineStr"/>
-      <c r="K454" s="3" t="inlineStr"/>
-      <c r="L454" s="3" t="inlineStr"/>
-      <c r="M454" s="3" t="inlineStr"/>
-      <c r="N454" s="3" t="inlineStr"/>
-      <c r="O454" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P454" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q454" s="3" t="inlineStr"/>
-      <c r="R454" s="3" t="inlineStr">
+      <c r="G454" s="7" t="inlineStr"/>
+      <c r="H454" s="7" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I454" s="7" t="inlineStr"/>
+      <c r="J454" s="7" t="inlineStr"/>
+      <c r="K454" s="7" t="inlineStr"/>
+      <c r="L454" s="7" t="inlineStr"/>
+      <c r="M454" s="7" t="inlineStr"/>
+      <c r="N454" s="7" t="inlineStr"/>
+      <c r="O454" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P454" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q454" s="7" t="inlineStr"/>
+      <c r="R454" s="7" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="S454" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T454" s="3" t="inlineStr"/>
-      <c r="U454" s="3" t="inlineStr"/>
+      <c r="S454" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T454" s="7" t="inlineStr"/>
+      <c r="U454" s="7" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" s="3" t="inlineStr">
@@ -35948,63 +35959,63 @@
       <c r="U696" s="4" t="inlineStr"/>
     </row>
     <row r="697">
-      <c r="A697" s="2" t="inlineStr">
+      <c r="A697" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0001228</t>
         </is>
       </c>
-      <c r="B697" s="2" t="inlineStr">
+      <c r="B697" s="7" t="inlineStr">
         <is>
           <t>substance misuse</t>
         </is>
       </c>
-      <c r="C697" s="2" t="inlineStr">
+      <c r="C697" s="7" t="inlineStr">
         <is>
           <t>Substance use that is outside of the terms approved or recommended by the jurisdiction in which the behaviour occurs.</t>
         </is>
       </c>
-      <c r="D697" s="2" t="inlineStr"/>
-      <c r="E697" s="2" t="inlineStr"/>
-      <c r="F697" s="2" t="inlineStr">
+      <c r="D697" s="7" t="inlineStr"/>
+      <c r="E697" s="7" t="inlineStr"/>
+      <c r="F697" s="7" t="inlineStr">
         <is>
           <t>substance use</t>
         </is>
       </c>
-      <c r="G697" s="2" t="inlineStr"/>
-      <c r="H697" s="2" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I697" s="2" t="inlineStr"/>
-      <c r="J697" s="2" t="inlineStr"/>
-      <c r="K697" s="2" t="inlineStr"/>
-      <c r="L697" s="2" t="inlineStr"/>
-      <c r="M697" s="2" t="inlineStr"/>
-      <c r="N697" s="2" t="inlineStr"/>
-      <c r="O697" s="2" t="inlineStr">
+      <c r="G697" s="7" t="inlineStr"/>
+      <c r="H697" s="7" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I697" s="7" t="inlineStr"/>
+      <c r="J697" s="7" t="inlineStr"/>
+      <c r="K697" s="7" t="inlineStr"/>
+      <c r="L697" s="7" t="inlineStr"/>
+      <c r="M697" s="7" t="inlineStr"/>
+      <c r="N697" s="7" t="inlineStr"/>
+      <c r="O697" s="7" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="P697" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q697" s="2" t="inlineStr"/>
-      <c r="R697" s="2" t="inlineStr">
+      <c r="P697" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q697" s="7" t="inlineStr"/>
+      <c r="R697" s="7" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="S697" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T697" s="2" t="inlineStr"/>
-      <c r="U697" s="2" t="inlineStr"/>
+      <c r="S697" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T697" s="7" t="inlineStr"/>
+      <c r="U697" s="7" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" s="7" t="inlineStr">
@@ -36070,71 +36081,71 @@
       <c r="U698" s="7" t="inlineStr"/>
     </row>
     <row r="699">
-      <c r="A699" s="3" t="inlineStr">
+      <c r="A699" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000401</t>
         </is>
       </c>
-      <c r="B699" s="3" t="inlineStr">
+      <c r="B699" s="7" t="inlineStr">
         <is>
           <t>substance use disorder</t>
         </is>
       </c>
-      <c r="C699" s="3" t="inlineStr">
+      <c r="C699" s="7" t="inlineStr">
         <is>
           <t>An addictive disorder in which the behaviour that is the subject of the addiction is use of a psychoactive substance.</t>
         </is>
       </c>
-      <c r="D699" s="3" t="inlineStr"/>
-      <c r="E699" s="3" t="inlineStr"/>
-      <c r="F699" s="3" t="inlineStr">
+      <c r="D699" s="7" t="inlineStr"/>
+      <c r="E699" s="7" t="inlineStr"/>
+      <c r="F699" s="7" t="inlineStr">
         <is>
           <t>addictive disorder</t>
         </is>
       </c>
-      <c r="G699" s="3" t="inlineStr">
+      <c r="G699" s="7" t="inlineStr">
         <is>
           <t>Disposition</t>
         </is>
       </c>
-      <c r="H699" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I699" s="3" t="inlineStr"/>
-      <c r="J699" s="3" t="inlineStr"/>
-      <c r="K699" s="3" t="inlineStr">
+      <c r="H699" s="7" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I699" s="7" t="inlineStr"/>
+      <c r="J699" s="7" t="inlineStr"/>
+      <c r="K699" s="7" t="inlineStr">
         <is>
           <t>drug use disorder</t>
         </is>
       </c>
-      <c r="L699" s="3" t="inlineStr"/>
-      <c r="M699" s="3" t="inlineStr"/>
-      <c r="N699" s="3" t="inlineStr"/>
-      <c r="O699" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P699" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q699" s="3" t="inlineStr"/>
-      <c r="R699" s="3" t="inlineStr">
+      <c r="L699" s="7" t="inlineStr"/>
+      <c r="M699" s="7" t="inlineStr"/>
+      <c r="N699" s="7" t="inlineStr"/>
+      <c r="O699" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P699" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q699" s="7" t="inlineStr"/>
+      <c r="R699" s="7" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="S699" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T699" s="3" t="inlineStr"/>
-      <c r="U699" s="3" t="inlineStr"/>
+      <c r="S699" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T699" s="7" t="inlineStr"/>
+      <c r="U699" s="7" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" s="7" t="inlineStr"/>

--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -32422,69 +32422,69 @@
       <c r="U626" s="7" t="inlineStr"/>
     </row>
     <row r="627">
-      <c r="A627" s="3" t="inlineStr">
+      <c r="A627" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0001034</t>
         </is>
       </c>
-      <c r="B627" s="3" t="inlineStr">
+      <c r="B627" s="7" t="inlineStr">
         <is>
           <t>severe alcohol use disorder</t>
         </is>
       </c>
-      <c r="C627" s="3" t="inlineStr">
+      <c r="C627" s="7" t="inlineStr">
         <is>
           <t>Alcohol use disorder which is characterised by impairments and/or problems which are extreme in nature.</t>
         </is>
       </c>
-      <c r="D627" s="3" t="inlineStr"/>
-      <c r="E627" s="3" t="inlineStr"/>
-      <c r="F627" s="3" t="inlineStr">
+      <c r="D627" s="7" t="inlineStr"/>
+      <c r="E627" s="7" t="inlineStr"/>
+      <c r="F627" s="7" t="inlineStr">
         <is>
           <t>alcohol use disorder</t>
         </is>
       </c>
-      <c r="G627" s="3" t="inlineStr"/>
-      <c r="H627" s="3" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I627" s="3" t="inlineStr"/>
-      <c r="J627" s="3" t="inlineStr"/>
-      <c r="K627" s="3" t="inlineStr"/>
-      <c r="L627" s="3" t="inlineStr"/>
-      <c r="M627" s="3" t="inlineStr">
+      <c r="G627" s="7" t="inlineStr"/>
+      <c r="H627" s="7" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I627" s="7" t="inlineStr"/>
+      <c r="J627" s="7" t="inlineStr"/>
+      <c r="K627" s="7" t="inlineStr"/>
+      <c r="L627" s="7" t="inlineStr"/>
+      <c r="M627" s="7" t="inlineStr">
         <is>
           <t>Give indication of severity and how this is operationalised.</t>
         </is>
       </c>
-      <c r="N627" s="3" t="inlineStr"/>
-      <c r="O627" s="3" t="inlineStr">
+      <c r="N627" s="7" t="inlineStr"/>
+      <c r="O627" s="7" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="P627" s="3" t="n">
+      <c r="P627" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q627" s="3" t="inlineStr">
+      <c r="Q627" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">extent of severity is subjective and how this is operationalised needs to be indicated </t>
         </is>
       </c>
-      <c r="R627" s="3" t="inlineStr">
+      <c r="R627" s="7" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="S627" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T627" s="3" t="inlineStr"/>
-      <c r="U627" s="3" t="inlineStr"/>
+      <c r="S627" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T627" s="7" t="inlineStr"/>
+      <c r="U627" s="7" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" s="7" t="inlineStr"/>
@@ -37289,67 +37289,67 @@
       <c r="U720" s="7" t="inlineStr"/>
     </row>
     <row r="721">
-      <c r="A721" s="5" t="inlineStr">
+      <c r="A721" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0001074</t>
         </is>
       </c>
-      <c r="B721" s="5" t="inlineStr">
+      <c r="B721" s="7" t="inlineStr">
         <is>
           <t>tobacco use disorder</t>
         </is>
       </c>
-      <c r="C721" s="5" t="inlineStr">
+      <c r="C721" s="7" t="inlineStr">
         <is>
           <t>An addictive disorder that involves addiction to tobacco use.</t>
         </is>
       </c>
-      <c r="D721" s="5" t="inlineStr"/>
-      <c r="E721" s="5" t="inlineStr"/>
-      <c r="F721" s="5" t="inlineStr">
+      <c r="D721" s="7" t="inlineStr"/>
+      <c r="E721" s="7" t="inlineStr"/>
+      <c r="F721" s="7" t="inlineStr">
         <is>
           <t>substance use disorder</t>
         </is>
       </c>
-      <c r="G721" s="5" t="inlineStr">
+      <c r="G721" s="7" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="H721" s="5" t="inlineStr">
-        <is>
-          <t>Human being</t>
-        </is>
-      </c>
-      <c r="I721" s="5" t="inlineStr"/>
-      <c r="J721" s="5" t="inlineStr"/>
-      <c r="K721" s="5" t="inlineStr"/>
-      <c r="L721" s="5" t="inlineStr"/>
-      <c r="M721" s="5" t="inlineStr"/>
-      <c r="N721" s="5" t="inlineStr"/>
-      <c r="O721" s="5" t="inlineStr">
+      <c r="H721" s="7" t="inlineStr">
+        <is>
+          <t>Human being</t>
+        </is>
+      </c>
+      <c r="I721" s="7" t="inlineStr"/>
+      <c r="J721" s="7" t="inlineStr"/>
+      <c r="K721" s="7" t="inlineStr"/>
+      <c r="L721" s="7" t="inlineStr"/>
+      <c r="M721" s="7" t="inlineStr"/>
+      <c r="N721" s="7" t="inlineStr"/>
+      <c r="O721" s="7" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="P721" s="5" t="inlineStr">
+      <c r="P721" s="7" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="Q721" s="5" t="inlineStr"/>
-      <c r="R721" s="5" t="inlineStr">
+      <c r="Q721" s="7" t="inlineStr"/>
+      <c r="R721" s="7" t="inlineStr">
         <is>
           <t>KS; RW</t>
         </is>
       </c>
-      <c r="S721" s="5" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T721" s="5" t="inlineStr"/>
-      <c r="U721" s="5" t="inlineStr"/>
+      <c r="S721" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T721" s="7" t="inlineStr"/>
+      <c r="U721" s="7" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" s="2" t="inlineStr">

--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about a person and signifies that the person has been diagnosed with alcohol use disorder within the past 12 months.</t>
+          <t>A data item that is about a person and signifies that the person has been diagnosed with alcohol use disorder within the past 12 months. TEST</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr"/>
@@ -697,7 +697,11 @@
         </is>
       </c>
       <c r="Q4" s="3" t="inlineStr"/>
-      <c r="R4" s="3" t="inlineStr"/>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="S4" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>

--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about a person and signifies that the person has been diagnosed with alcohol use disorder within the past 12 months. TEST</t>
+          <t>A data item that is about a person and signifies that the person has been diagnosed with alcohol use disorder within the past 12 months. TEST 1</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr"/>

--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -7429,7 +7429,7 @@
       <c r="D126" s="3" t="inlineStr"/>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">'disease' and 'inheres in' some 'cardiovascular system' </t>
+          <t xml:space="preserve">'disease' and 'characteristic of' some 'cardiovascular system' </t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
@@ -7464,7 +7464,7 @@
       <c r="Q126" s="3" t="inlineStr"/>
       <c r="R126" s="3" t="inlineStr">
         <is>
-          <t>KS; JH</t>
+          <t>KS; JH; BG</t>
         </is>
       </c>
       <c r="S126" s="3" t="inlineStr">

--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -11573,7 +11573,7 @@
       <c r="D205" s="3" t="inlineStr"/>
       <c r="E205" s="3" t="inlineStr">
         <is>
-          <t>'disease' and 'inheres in' some 'digestive system'</t>
+          <t>'disease' and 'characteristic of' some 'digestive system'</t>
         </is>
       </c>
       <c r="F205" s="3" t="inlineStr">
@@ -11610,7 +11610,7 @@
       <c r="Q205" s="3" t="inlineStr"/>
       <c r="R205" s="3" t="inlineStr">
         <is>
-          <t>KS; JH</t>
+          <t>KS; JH; BG</t>
         </is>
       </c>
       <c r="S205" s="3" t="inlineStr">

--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -11640,7 +11640,7 @@
       <c r="D206" s="3" t="inlineStr"/>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>'disease' and 'inheres in' some 'respiratory system'</t>
+          <t>'disease' and 'characteristic of' some 'respiratory system'</t>
         </is>
       </c>
       <c r="F206" s="3" t="inlineStr">
@@ -11677,7 +11677,7 @@
       <c r="Q206" s="3" t="inlineStr"/>
       <c r="R206" s="3" t="inlineStr">
         <is>
-          <t>KS; JH</t>
+          <t>KS; JH; BG</t>
         </is>
       </c>
       <c r="S206" s="3" t="inlineStr">

--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -16128,7 +16128,9 @@
       <c r="L293" s="3" t="inlineStr"/>
       <c r="M293" s="3" t="inlineStr"/>
       <c r="N293" s="3" t="inlineStr"/>
-      <c r="O293" s="3" t="inlineStr"/>
+      <c r="O293" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="P293" s="3" t="n">
         <v>1</v>
       </c>
@@ -19040,7 +19042,7 @@
       <c r="E350" s="3" t="inlineStr"/>
       <c r="F350" s="3" t="inlineStr">
         <is>
-          <t>intentional to stop cigarette smoking</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="G350" s="3" t="inlineStr">
@@ -19078,7 +19080,7 @@
       </c>
       <c r="R350" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; BG</t>
         </is>
       </c>
       <c r="S350" s="3" t="inlineStr">

--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -19042,7 +19042,7 @@
       <c r="E350" s="3" t="inlineStr"/>
       <c r="F350" s="3" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>intentional to stop cigarette smoking</t>
         </is>
       </c>
       <c r="G350" s="3" t="inlineStr">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="R350" s="3" t="inlineStr">
         <is>
-          <t>RW; BG</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="S350" s="3" t="inlineStr">
@@ -22358,7 +22358,7 @@
       <c r="E417" s="3" t="inlineStr"/>
       <c r="F417" s="3" t="inlineStr">
         <is>
-          <t>psychoactive substance abstainer</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="G417" s="3" t="inlineStr"/>
@@ -22386,7 +22386,7 @@
       <c r="Q417" s="3" t="inlineStr"/>
       <c r="R417" s="3" t="inlineStr">
         <is>
-          <t>KS; JH</t>
+          <t>KS; JH; BG</t>
         </is>
       </c>
       <c r="S417" s="3" t="inlineStr">
@@ -22417,7 +22417,7 @@
       <c r="E418" s="3" t="inlineStr"/>
       <c r="F418" s="3" t="inlineStr">
         <is>
-          <t>psychoactive substance abstainer</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="G418" s="3" t="inlineStr"/>
@@ -22447,7 +22447,7 @@
       <c r="Q418" s="3" t="inlineStr"/>
       <c r="R418" s="3" t="inlineStr">
         <is>
-          <t>SC; KS; JH</t>
+          <t>SC; KS; JH; BG</t>
         </is>
       </c>
       <c r="S418" s="3" t="inlineStr">
@@ -22482,7 +22482,7 @@
       <c r="E419" s="3" t="inlineStr"/>
       <c r="F419" s="3" t="inlineStr">
         <is>
-          <t>psychoactive substance abstainer</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="G419" s="3" t="inlineStr"/>
@@ -22510,7 +22510,7 @@
       <c r="Q419" s="3" t="inlineStr"/>
       <c r="R419" s="3" t="inlineStr">
         <is>
-          <t>KS; JH</t>
+          <t>KS; JH; BG</t>
         </is>
       </c>
       <c r="S419" s="3" t="inlineStr">

--- a/inputs/AddictO_Human-being_Defs.xlsx
+++ b/inputs/AddictO_Human-being_Defs.xlsx
@@ -16128,8 +16128,10 @@
       <c r="L293" s="3" t="inlineStr"/>
       <c r="M293" s="3" t="inlineStr"/>
       <c r="N293" s="3" t="inlineStr"/>
-      <c r="O293" s="3" t="n">
-        <v>0</v>
+      <c r="O293" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P293" s="3" t="n">
         <v>1</v>
@@ -19042,7 +19044,7 @@
       <c r="E350" s="3" t="inlineStr"/>
       <c r="F350" s="3" t="inlineStr">
         <is>
-          <t>intentional to stop cigarette smoking</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="G350" s="3" t="inlineStr">
@@ -19080,7 +19082,7 @@
       </c>
       <c r="R350" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; BG</t>
         </is>
       </c>
       <c r="S350" s="3" t="inlineStr">
